--- a/Tokopedia_Rating_10-03-2025.xlsx
+++ b/Tokopedia_Rating_10-03-2025.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,35 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>price</t>
+          <t>original_price</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>discounted_price</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>discount</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>store</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>sold</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>details_link</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>description</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>rating</t>
         </is>
@@ -483,30 +493,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Rp85.000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Rp70.000</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>HERBANA</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Tangerang</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>750+ terjual</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/herbana/herbana-relief-sari-daun-kelor-moringa-sumber-nutrisi-vitamin-30-kapsul?extParam=ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>Herbal
 Halal MUI
@@ -524,7 +544,7 @@
 Pesanan yang bisa di klik dan masuk keranjang, maka stok ready</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -538,30 +558,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Rp105.000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Rp59.500</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>NutriOneID</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Jakarta Utara</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>1rb+ terjual</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/nutrioneid/daun-kelor-bubuk-moringa-powder-premium-original-nutrione?extParam=ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Nutrione Daun Kelor Bubuk (MoringaPowder)
 Daun kelor merupakan tanaman asli India yang mengandung protein, vitamin, dan mineral guna melawan malnutrisi. Daun kelor adalah salah satu sumber makanan yang bermanfaat untuk kesehatan
@@ -590,7 +620,7 @@
 - Bila ada kendala/pertanyaan harap menghubungi kami terlebih dahulu lewat chat</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
@@ -607,27 +637,29 @@
           <t>Rp650.000</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>heavenlyvitamin</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Jakarta Barat</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>60+ terjual</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/heavenlyvitamin/naturebell-moringa-oleifera-8-000mg-240-capsules-non-gmo-gluten-free?extParam=ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>Naturebell Moringa Oleifera 8,000mg - 240 Capsules-Non-GMO,Gluten Free
 Produk Dijamin100% ORI dan Segel ya kak
@@ -649,7 +681,7 @@
 #Heavenly Vitamin</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -666,27 +698,29 @@
           <t>Rp80.000</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>D'herbalist</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Jakarta Selatan</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>250+ terjual</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/dherbalist/moringa-oleifera-ekstrak-daun-kelor-100-kapsul-botol-100-kaps-5035b?extParam=ivf%3Dtrue%26keyword%3Dmoringa&amp;src=topads</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>Nama Produk : Dherbalist Moringa Oleifera
 Izin. : P-IRT 21031740215551-29
@@ -728,7 +762,7 @@
 - Mencegah Infeksi Bakteri, Virus dan Jamur</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
@@ -745,32 +779,34 @@
           <t>Rp288.500</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Naturama Herb</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Jakarta Selatan</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>27 terjual</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/naturamaherb/moringa-oleifera-300-capsules-naturama?extParam=ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Moringa Oleifera Leaf Powder Organic Bubuk Daun Kelor Murni Organik Tidak mengandung pewarna atau pengawet. Praktis dan higienis. Sudah di kemas dalam kapsul Isi 300 Kapsul 100% Organic local grown and fair trade. 100% Alami tanpa campuran bahan kimia, pengawet atau pewarna. Kapsul Halal MUI LP POM MUI: 00140016360701 Kemasan toples HDPE Foodgrade Moringa oleifera adalah tanaman asli India utara yang juga dapat tumbuh di tempat tropis dan sub tropis lainnya, seperti Asia dan Afrika. Pengobatan tradisional telah menggunakan daun, bunga, biji, dan akar tanaman ini selama berabad-abad. Ini secara tradisional telah digunakan sebagai obat untuk kondisi seperti: Diabetes Peradangan yang berlangsung lama Infeksi bakteri, virus, dan jamur Nyeri sendi Kesehatan jantung Kanker Takaran penggunaan: Cukup 2 kali sehari, pagi dan sore Ready Stock. (Jika produk tayang berarti ada stok) Silahkan di Order. #moringaleaf #puremoringa #moringaoleifera</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -784,30 +820,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Rp55.000</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Rp37.000</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>daribumiofficial</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Jakarta Barat</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>100+ terjual</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/daribumiofc/dari-bumi-moricle-moringa-latte-minuman-bubuk-kelor-latte-200-gram?extParam=ivf%3Dtrue%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/daribumiofc/dari-bumi-moricle-moringa-latte-minuman-bubuk-kelor-latte-200-gram?extParam=ivf%3Dtrue%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>Dari Bumi Moricle Moringa Latte Minuman Bubuk Kelor Latte 200 Gram
 P-IRT No. 2103173221728-29
@@ -821,7 +867,7 @@
 AYO BUAT VIDEO UNBOXING PAKET MU, KARENA BILA TIDAK ADA VIDEO UNBOXING, KOMPLAIN TIDAK BISA DI KLAIM</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
@@ -835,31 +881,41 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Rp35.000</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>Rp24.900</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>GALLEO Official Shop</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Jakarta Utara</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>500+ terjual</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/galleo/daun-kelor-moringa-bubuk-organik-premium-galleo-jar-m-2aa66?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/galleo/daun-kelor-moringa-bubuk-organik-premium-galleo-jar-m-2aa66?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -876,27 +932,29 @@
           <t>Rp35.000</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Moringa Organik Indonesia Official</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Kab. Blora</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>2rb+ terjual</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/kelorina/moringa-pyramid-tea-teh-celup-piramid-daun-kelor-organik-premium?extParam=ivf%3Dtrue%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/kelorina/moringa-pyramid-tea-teh-celup-piramid-daun-kelor-organik-premium?extParam=ivf%3Dtrue%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>TURUNKAN GULA DARAH DAN KOLESTEROL DENGAN DAUN KELOR!
 Moringa Pyramid Tea adalah seduhan daun Kelor organik 100% yang diolah dengan cara yang sangat khusus sehingga menghasilkan produk turunan terbaik yang menjadi best produk MOI.
@@ -920,7 +978,7 @@
 15 Tea Bag @2 gram</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -934,30 +992,40 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Rp36.000</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Rp34.490</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Safiya Food Official</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Jakarta Barat</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>1rb+ terjual</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/safiyafood/moringa-powder-350-gram-bubuk-daun-kelor-authentic-safiya-food?extParam=ivf%3Dtrue%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/safiyafood/moringa-powder-350-gram-bubuk-daun-kelor-authentic-safiya-food?extParam=ivf%3Dtrue%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>Assalamualaikum, Safiyan!
 Selamat Datang di Official Store Safiya Food.
@@ -974,7 +1042,7 @@
 Customer Service and Hotline 24 Hours</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
@@ -991,32 +1059,34 @@
           <t>Rp49.000</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Nilaya Official Store</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Denpasar</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>1rb+ terjual</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/nilaya-co/bubuk-daun-kelor-organik-organic-moringa-powder-250g?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/nilaya-co/bubuk-daun-kelor-organik-organic-moringa-powder-250g?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>READY STOCK di Jakarta, Bandung, Surabaya dan Bali, supaya terdekat anda! - Pengiriman Same-Day bisa! Pengiriman seluruh Indonesia bisa! Produksi pada saat order. Kemasan TIDAK Transparan sehingga bubuknya tetap segar, warnanya hijau terang dan manfaatnya tinggi ! 10 vitamin, 8 asam amino esensial, dan mineral dalam satu superfood? Kok bisa?! Moringa (Daun Kelor) adalah SUPERFOOD yang mengandung: Vitamin (B1, B2, B3, B5, B6, B8, B9, A, C, E) Mineral (kalium, kalsium, magnesium, besi, mangan, selenium) Asam amino esensial (isoleusin, leusin, lisin, metionin, fenilalanin, treonin, triptofan, valin). Mengandung lebih banyak protein daripada sebagian besar sayuran, dan 2 kali lebih banyak protein dan kalsium daripada susu! Kandungan potasiumnya 2 kali lebih penting daripada pisang! Betul ! Jika kita hanya bisa memilih satu superfood, lebih baik memilih Moringa untuk beragam manfaatnya! Cara konsumsi : Minum 1-2 sendok teh dengan yogurt, smoothie atau jus buah. Juga bisa menambahkan moringa ke persiapan kuliner seperti kue, pancake, makanan penutup agar menjadi warna hijau ! Yuk Beli moringa organik dari The Little Herbalist sekarang! BPOM P-IRT 5105103040079-27 TANGGAL KADALUARSA (Expiration Date) : +2 tahun dari tanggal pembelian</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1025,35 +1095,102 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>Herbana Relief Sari Powder Daun Kelor Moringa Sumber Nutrisi, Vitamin- Isi 30 Sachet @4g</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Rp183.000</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Rp149.000</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19%</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>HERBANA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tangerang</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>90+ terjual</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/herbana/herbana-relief-sari-powder-daun-kelor-moringa-sumber-nutrisi-vitamin-isi-30-sachet-4g?extParam=ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Herbal
+Halal MUI
+No. BPOM: TR 142 381 121
+Isi 30 sachets @4g
+Fungsi utama: Berkhasiat untuk membantu memelihara kesehatan
+Aturan pakai: Ambil 1 sachet Relief Sari Powder, campurkan dengan segelas air atau makanan/minuman favorit anda
+Komposisi : 4g Ekstrak Moringae oleiferae Folium (Ekstrak Daun Kelor)
+Herbana menyediakan alternatif untuk gaya hidup yang lebih sehat dengan mengkombinasikan kearifan lokal dengan proses yang modern, sehingga anda bisa menikmati potensi dari alam dengan lebih mudah. Herbana terbuat dari ekstrak tunggal tumbuhan yang diproses dengan menggunakan System Quadra Extraction.
+Diproduksi oleh PT Deltomed Laboratories
+*Baca aturan pakai
+Note :
+Jam operasional admin Herbana Senin sd Jumat, pukul 09.00 sd 15.00 wib.
+Pesanan yang masuk akan diproses maksimal H+1 setelah terbit invoice dan no resi akan update pada akun anda H+2 setelah terbit invoice. Kecuali pada hari Sabtu-Minggu, atau hari libur nasional (toko kami tutup/tidak ada pengiriman).
+Pesanan yang bisa di klik dan masuk keranjang, maka stok ready</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Moringa Oleifera 180 Kapsul Naturama Bubuk Daun Kelor Organik</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Rp172.500</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Naturama Store</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Jakarta Selatan</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>1rb+ terjual</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/naturama/moringa-oleifera-180-kapsul-naturama-bubuk-daun-kelor-organik?extParam=ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>Moringa Oleifera Leaf Powder Organic
 Bubuk Daun Kelor Murni Organik
@@ -1080,44 +1217,117 @@
 #moringaoleifera</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MORINGA TEA - TEH DAUN KELOR ISI 30 TEA BAG</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Rp21.000</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>elif Tea &amp; Tisane</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Kab. Cirebon</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2rb+ terjual</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/eliftea/moringa-tea-teh-daun-kelor-isi-30-tea-bag-pure-moringa?extParam=ivf%3Dtrue%26keyword%3Dmoringa&amp;src=topads</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Menjaga imunitas tubuh kini sangat penting saat kondisi ini.
+Beragam hal dilakukan untuk menajaga imunitas, salah satunya dengan mengonsumsi makanan bergizi. Daun kelor menjadi salah satu pilihan lantaran mengandung sejumlah vitamin dan antioksidan.
+"Tim peneliti Universitas Indonesia (UI) dan IPB menemukan kandidat antivirus dari bahan alam Indonesia. Golongan senyawa tersebut antara lain hesperidin, rhamnetin, kaempferol, kuersetin dan myricetin yang terk
+Salah satu produk alternatif pangan, banyak diminati dimancanegara ;)
+Produk ini dapat disimpan selama 24 bulan sejak tanggal pembuatan di dalam wadah tertutup pada suhu kamar dan kelembaban rendah. Produk dapat dipesan dengan skala industri atau untuk skala kecil seperti untuk penelitian.
+- Berbentuk teh celup (dengan teabag)
+- Dikonsumsi seperti teh pada umumnya, bisa ditambahkan madu agar lebih nikmat
+- Dapat dikonsumsi 3- x sehari, sesuai kebutuhan.
+Isi : 30 tea bag
+Berat Bersih : 30 x 2 gram
+(*)Aman untuk ibu ham dan menyusui
+Manfaat utama Teh Daun Kelor untuk meningkatkan imunitas.
+Manfaat lainnya :
+1. Menyehatkan kulit
+2. Mengatasi diabetes
+3. Menyehatkan mata
+4. Mencegah kanker
+5. Mengobati Rematik
+6. Mengatasi Cacingan
+7. Mengobati Alergi
+8. Mengobati Herpes, Kurap dan Luka bernanah
+9. Menghilangkan Flek wajah
+10. Penghancur batu ginjal
+Keunggulan :
+1. 100 % Organik
+2 Tanaman dibudidayakan intensif tanpa pupuk dan pestisida kimia
+3. Daun diproses secara higienis untuk mencegah kontaminasi bakteri
+4. Teh daun dikemas dengan rapi</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Moringa Series (Paket Daun Kelor)</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>Rp95.000</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>LHI Official</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Bogor</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>7 terjual</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>8 terjual</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/lhiofficial/moringa-series-paket-daun-kelor?extParam=ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>Online Store Resmi PT. Liza Herbal International
 Moringa Series / Paket Daun Kelor : Lhimoringa kapsul &amp; Moringa GT celup
@@ -1148,172 +1358,62 @@
 Pencegahan : 1 x 1 hari sesudah makan</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Herbana Relief Sari Powder Daun Kelor Moringa Sumber Nutrisi, Vitamin- Isi 30 Sachet @4g</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Rp149.000</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>HERBANA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Tangerang</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>90+ terjual</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/herbana/herbana-relief-sari-powder-daun-kelor-moringa-sumber-nutrisi-vitamin-isi-30-sachet-4g?extParam=ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Herbal
-Halal MUI
-No. BPOM: TR 142 381 121
-Isi 30 sachets @4g
-Fungsi utama: Berkhasiat untuk membantu memelihara kesehatan
-Aturan pakai: Ambil 1 sachet Relief Sari Powder, campurkan dengan segelas air atau makanan/minuman favorit anda
-Komposisi : 4g Ekstrak Moringae oleiferae Folium (Ekstrak Daun Kelor)
-Herbana menyediakan alternatif untuk gaya hidup yang lebih sehat dengan mengkombinasikan kearifan lokal dengan proses yang modern, sehingga anda bisa menikmati potensi dari alam dengan lebih mudah. Herbana terbuat dari ekstrak tunggal tumbuhan yang diproses dengan menggunakan System Quadra Extraction.
-Diproduksi oleh PT Deltomed Laboratories
-*Baca aturan pakai
-Note :
-Jam operasional admin Herbana Senin sd Jumat, pukul 09.00 sd 15.00 wib.
-Pesanan yang masuk akan diproses maksimal H+1 setelah terbit invoice dan no resi akan update pada akun anda H+2 setelah terbit invoice. Kecuali pada hari Sabtu-Minggu, atau hari libur nasional (toko kami tutup/tidak ada pengiriman).
-Pesanan yang bisa di klik dan masuk keranjang, maka stok ready</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>NATURELINE MORINGA BOTOL 60 KAPLET</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Rp298.948</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Apotek Rahmat Banjarmasin</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Banjarmasin</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/apotekrahmatbanja/natureline-moringa-botol-60-kaplet-1730889482072458713?extParam=ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Deskripsi:
-Natureline Moringa merupakan obat tradisional yang mengandung ekstrak daun kelor yang bermanfaat untuk membantu memelihara kesehatan tubuh
-Komposisi:
-Tiap kaplet mengandung Moringa Oleifera Folium Extract 500 mg
-Dosis:
-Dewasa: sehari 2 kali 1 kaplet
-Indikasi:
-Membantu memelihara kesehatan tubuh
-Perhatian Khusus:
-null
-Kemasan:
-Botol, 60 kaplet
-NIE:
-TR212510531
-Golongan:
-Herbal dan Tradisional</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Bubuk kelor moringa murni 1kg - 100 gram</t>
+          <t>Herbal Essences Shampoo Bio Renew Golden Moringa 400 ml</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Rp6.900</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>GROSIR HERBAL CURAH</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Kab. Bogor</t>
-        </is>
-      </c>
+          <t>Rp110.000</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>250+ terjual</t>
+          <t>P&amp;G Official Store</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/grosir-herbal-curah/bubuk-kelor-moringa-murni-1kg-100-gram?extParam=ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
+          <t>Jakarta Timur</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Daun Kelor
-Daun kelor bubuk asli, hijau, warna hijau, komposisi daun lebih banyak, hanya tercampur batang kecilnya saja,
-Baik untuk campuran bahan baku jamu atau
-minuman herbal lain.
-Khasiat dapat dibaca pada artikel berikut
-https://lifestyle.kompas.com/read/2019/08/29/154133020/intip-berbagai-manfaat-daun-kelor-untuk-kesehatan?page=all
-Berat Bersih 100 gram. berat dengan kemasan 125 gram
-Tersedia kemasan 50, 100, 250, 500 gram, dan 1000 gram
-#daunkelor
-#daunkelorsegar
-#daunkelorkering
-#daunkelormurni
-#antioksidan
-#penurunkadarguladarah
-#obatkolesterol
-#antiracunarsenik</t>
+          <t>2rb+ terjual</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/pgofficialstore/herbal-essences-shampoo-bio-renew-golden-moringa-400-ml?extParam=ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Herbal Essences Shampoo Bio Renew Golden Moringa 400 ml
+Note:
+- Harga yang tertera untuk 1 pcs Herbal Essences Shampoo Bio Renew Golden Moringa ukuran 400 ml
+Fungsi:
+Herbal Essences Bio:Renew Smooth Golden Moringa Oil Shampo dengan antioxidan esensial yang dapat membantu membersihkan dan melindungi rambut, untuk rambut yang lebih sehat. Jadikan rambut lebih mudah diatur dengan Herbal Essences Shampoo Bio Renew Golden Moringa. Sampo ini bebas paraben, bebas pewarna, dan bebas silikon. Benamkan diri Anda dalam aroma jeruk, bunga putih, dan air kelapa segar. Rambut halus dan sehat dengan pH seimbang dan aman untuk rambut yang diwarnai.
+Komposisi:
+Water, Sodium Laureth Sulfate, Sodium Citrate, Cocamidopropyl Betaine, Stearyl Alcohol, Sodium Lauryl Sulfate, Sodium Chloride, Sodium Xylenesulfonate, Fragrance, Moringa Oleifera Seed Oil, Histidine, Aloe Barbadensis Leaf Juice, Ecklonia Radiata Extract,Cetyl Alcohol, Citric Acid, Sodium Benzoate, Polyquaternium-6, Guar Hydroxypropyltrimonium Chloride, Tetrasodium Edta, Trihydroxystearin, Methylchloroisothiazolinone, Methylisothiazolinone.
+Cara Penggunaan:
+Basahkan rambut, tuangkan shampo lalu gosok rambut dan kulit kepala. Diamkan sampo 2-3 menit agar zat aktif bekerja maksimal, dan bilas hingga bersih dengan air hangat/dingin.
+Opsi Paket Lain:
+X2 %3D7377294
+X3 %3D7377294</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
@@ -1327,30 +1427,40 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>Rp13.045</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>Rp12.393</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Flozindo</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Kab. Banyumas</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>750+ terjual</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/flozindo/flozindo-moringa-tea-teh-daun-kelor-organik-pack-45gr-319e5?extParam=ivf%3Dtrue%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/flozindo/flozindo-moringa-tea-teh-daun-kelor-organik-pack-45gr-319e5?extParam=ivf%3Dtrue%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>Komposisi : Moringa Oleifera
 P-IRT No.2123304061431-25
@@ -1368,7 +1478,7 @@
 Flozindo.id</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
@@ -1385,27 +1495,29 @@
           <t>Rp18.000</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Soapily Naturals</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Kab. Tangerang</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>100+ terjual</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/soapilyid/soapily-binahong-moringa-soap-sabun-alami-kelor-kulit-jerawat-natural-half-45-55-g-ccaa3?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/soapilyid/soapily-binahong-moringa-soap-sabun-alami-kelor-kulit-jerawat-natural-half-45-55-g-ccaa3?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>BINAHONG MORINGA Soap SOAPILY with Real Extract
 Handcrafted Natural Soap from Best Natural Ingredients
@@ -1453,7 +1565,7 @@
 VEGAN FRIENDLY</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
@@ -1467,30 +1579,40 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>Rp29.000</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>Rp24.500</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Mega Beauty Fashindo</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Kab. Tangerang</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>2rb+ terjual</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/megabeautyf/natur-hair-conditioner-gingseng-olive-oil-moringa-165ml-cond-argan-oil-0a9dd?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/megabeautyf/natur-hair-conditioner-gingseng-olive-oil-moringa-165ml-cond-argan-oil-0a9dd?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>Mohon pilih variasi sebelum check out jika tidak akan kami kirim random :)
 Natur Hair Conditioner Isi 165ML terdiri dari 3 variasi :
@@ -1513,7 +1635,7 @@
 Melembutkan dan merawat kemilau rambut hitam.</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
@@ -1530,27 +1652,29 @@
           <t>Rp85.000</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Moringa Organik Indonesia Official</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Kab. Blora</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>750+ terjual</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/kelorina/kelorina-royal-moringa-powder-tepung-daun-kelor-halus-mesh1-250-gram-9ff28?extParam=ivf%3Dtrue%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/kelorina/kelorina-royal-moringa-powder-tepung-daun-kelor-halus-mesh1-250-gram-9ff28?extParam=ivf%3Dtrue%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>Royal Moringa 500 Gram | Tepung Daun Kelor | Serbuk Daun Kelor | Original Ori 100% | Anti Bacterial | Herbal Kaya Nutrisi | Detox
 Royal Moringa adalah Tepung Daun Kelor Halus, bahan makanan bernutrisi tinggi yang berasal dari 100% daun kelor segar yang dibudidayakan dengan kaidah organik, diolah dengan metode khusus Moringa Organik Indonesia yang menjamin keutuhan Nutrisi Tinggi yang dikandungnya. Royal Moringa mengandung 18 Asam Amino yang berperan penting untuk kesehatan dan pertumbuhan.
@@ -1577,7 +1701,7 @@
 Meskipun banyak literatur menyebutkan Kelor memiliki khasiat obat yang terbukti secara ilmiah. Bahkan Kitab Ayur Veda menyebutkan mampu mengatasi 300 penyakit, PT Moringa Organik Indonesia TIDAK PERNAH me</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1591,35 +1715,45 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Rp189.000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>Rp119.000</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>37%</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Kundal Official</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Kab. Bekasi</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>2rb+ terjual</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/kundalofficial/kundal-honey-macadamia-shampoo-acacia-moringa-made-in-korea?extParam=cmp%3D1%26ivf%3Dtrue%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/kundalofficial/kundal-honey-macadamia-shampoo-acacia-moringa-made-in-korea?extParam=cmp%3D1%26ivf%3Dtrue%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>Kundal Honey amp; Macadamia Shampoo merupakan Shampo Natural yang kaya akan busa untuk membersihkan kulit kepala dan mengatasi rambut kusut anda! Diformulasikan dengan Surfaktan alami berbahan dasar tumbuhan yang tidak mengiritasi kulit (hypoallergenic). * Terdaftar di BPOM * 10.000 PPM ekstrak madu dan macadamia * Seluruh Bahan terverifikasi EWG Green Grade (kecuali pewangi) * Argan Oil + Jojoba Oil + Coconut Oil + Avocado Oil + Macadamia Oil * 44 Ekstrak Tumbuhan Alami * 97,4% Bahan Alami Natural * Ultra- Gentle, dengan PH Balanced (5-6 PH) formula cocok untuk pengunaan sehari-hari * Cocok untuk kulit kepala sensitif. * Dengan pilihan wangi yang bervariatif dan menarik * Terjual 1 botol setiap 3 detik !</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1636,27 +1770,29 @@
           <t>Rp45.000</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Nisyasa Store</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Kab. Batang</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>24 terjual</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/nisyasastore/dari-bumi-daun-kelor-moringa-bubuk-premium-pure-organic-450gram-e486f?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/nisyasastore/dari-bumi-daun-kelor-moringa-bubuk-premium-pure-organic-450gram-e486f?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>Dari Bumi Daun Kelor Moringa Bubuk Premium Pure Organic
 P-IRT 6103603650653-28
@@ -1668,7 +1804,7 @@
 AYO BUAT VIDEO UNBOXING PAKET MU, KARENA BILA TIDAK ADA VIDEO UNBOXING, KOMPLAIN TIDAK BISA DI KLAIM</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
@@ -1685,27 +1821,29 @@
           <t>Rp6.900</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>GROSIR HERBAL CURAH</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Kab. Bogor</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>250+ terjual</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/grosir-herbal-curah/bubuk-kelor-moringa-murni-1kg-100-gram?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/grosir-herbal-curah/bubuk-kelor-moringa-murni-1kg-100-gram?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>Daun Kelor
 Daun kelor bubuk asli, hijau, warna hijau, komposisi daun lebih banyak, hanya tercampur batang kecilnya saja,
@@ -1725,7 +1863,7 @@
 #antiracunarsenik</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
@@ -1734,35 +1872,107 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Flozindo Moringa Powder / Daun Kelor Bubuk</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Rp17.993</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Rp17.093</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Flozindo</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Kab. Banyumas</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1rb+ terjual</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/flozindo/flozindo-moringa-powder-daun-kelor-bubuk-slim-108gr-6bd07?extParam=ivf%3Dtrue%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Moringa Oleifera Powder / Serbuk Daun Kelor / Tepung Daun Kelor / bubuk kelor
+SPESIFIKASI :
+&amp; MURNI 100% DAUN KELOR HIJAU DIKERINGKAN
+&amp; Tanpa Campuran, Pengawet ataupun Pewarna
+&amp;Warna Hijau Segar Bright, krn diproses alami dan bukan daun Mati/Guguran Daun yg coklat tidak berkhasiat.
+&amp; Wangi Khas Moringa Segar, Wangi Moringa Sangat Tajam
+Khasiat dan Manfaat
+Serbuk Daun Kelorina merupakan suplemen alami, sumber antioksidan alami, asam amino essensial, multivitamin dan mineral, serta sumber asupan nutrisi tinggi alami lainnya bagi tubuh. Secara enpiris maupun hasil penelitian ilmiah, serbuk daun Kelor juga terbukti berhasil mengatasi malnutrisi (gizi buruk), berkhasiat obat untuk beragam penyakit degeneratif, digunakan sebagai anti kanker, anti tumor, anti diabetes, anti hipertensi, peluruh lemak jahat kolesterol, detoksifikasi, tonic penguat jantung, bahkan
+Penggunaan : sebagai campuran minuman (teh, kopi, jamu, juice, sirup, madu) dan makanan (aneka sayuran, nasi goreng, kue, agar-agar, puding, dll), serta bahan pengisi kapsul.
+Dosis : Dianjurkan untuk dikonsumsi 2-3 sendok teh per hari
+&amp; pagi 1 sendok teh malam 1 sendok teh</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>Bubuk Daun Kelor Organik 250 gr Powder Moringa Original Safiya Herbal</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Rp50.000</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>Rp24.500</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>51%</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Hannah Store Official</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Jakarta Barat</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>1rb+ terjual</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/hannahstoreofficial/bubuk-daun-kelor-organik-250-gr-powder-moringa-original-safiya-herbal?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/hannahstoreofficial/bubuk-daun-kelor-organik-250-gr-powder-moringa-original-safiya-herbal?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>"Hannah Store Official Shop"
 (Toko Online Oleh Oleh Haji Murah dan Terpercaya)
@@ -1784,59 +1994,7 @@
 MORINGA 100 GRAMS</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Flozindo Moringa Powder / Daun Kelor Bubuk</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Rp17.093</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Flozindo</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Kab. Banyumas</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1rb+ terjual</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/flozindo/flozindo-moringa-powder-daun-kelor-bubuk-slim-108gr-6bd07?extParam=ivf%3Dtrue%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Moringa Oleifera Powder / Serbuk Daun Kelor / Tepung Daun Kelor / bubuk kelor
-SPESIFIKASI :
-&amp; MURNI 100% DAUN KELOR HIJAU DIKERINGKAN
-&amp; Tanpa Campuran, Pengawet ataupun Pewarna
-&amp;Warna Hijau Segar Bright, krn diproses alami dan bukan daun Mati/Guguran Daun yg coklat tidak berkhasiat.
-&amp; Wangi Khas Moringa Segar, Wangi Moringa Sangat Tajam
-Khasiat dan Manfaat
-Serbuk Daun Kelorina merupakan suplemen alami, sumber antioksidan alami, asam amino essensial, multivitamin dan mineral, serta sumber asupan nutrisi tinggi alami lainnya bagi tubuh. Secara enpiris maupun hasil penelitian ilmiah, serbuk daun Kelor juga terbukti berhasil mengatasi malnutrisi (gizi buruk), berkhasiat obat untuk beragam penyakit degeneratif, digunakan sebagai anti kanker, anti tumor, anti diabetes, anti hipertensi, peluruh lemak jahat kolesterol, detoksifikasi, tonic penguat jantung, bahkan
-Penggunaan : sebagai campuran minuman (teh, kopi, jamu, juice, sirup, madu) dan makanan (aneka sayuran, nasi goreng, kue, agar-agar, puding, dll), serta bahan pengisi kapsul.
-Dosis : Dianjurkan untuk dikonsumsi 2-3 sendok teh per hari
-&amp; pagi 1 sendok teh malam 1 sendok teh</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
@@ -1850,30 +2008,40 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>Rp73.850</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>Rp70.896</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Toko obat palembang</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Bandung</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>750+ terjual</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/topalembang/sidomuncul-sari-daun-kelor-50-moringa-oleifera-sido-muncul-d-kelor?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/topalembang/sidomuncul-sari-daun-kelor-50-moringa-oleifera-sido-muncul-d-kelor?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>Sido Muncul Sari Daun Kelor merupakan herbal yang dapat membantu memelihara kesehatan, menurunkan kadar gula darah, dan membantu menurunkan kolesterol.
 Komposisi: Moringa Oleifera Folium.
@@ -1884,7 +2052,7 @@
 No BPOM TR 132371791</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -1893,157 +2061,37 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MORINGA TEA - TEH DAUN KELOR ISI 30 TEA BAG</t>
+          <t>Daun kelor 35gram / moringa leaf / moringa leaves</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Rp21.000</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>elif Tea &amp; Tisane</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Kab. Cirebon</t>
-        </is>
-      </c>
+          <t>Rp9.000</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2rb+ terjual</t>
+          <t>food Service Ingredients</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/eliftea/moringa-tea-teh-daun-kelor-isi-30-tea-bag-pure-moringa?extParam=ivf%3Dtrue%26keyword%3Dmoringa&amp;src=topads</t>
+          <t>Jakarta Timur</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Menjaga imunitas tubuh kini sangat penting saat kondisi ini.
-Beragam hal dilakukan untuk menajaga imunitas, salah satunya dengan mengonsumsi makanan bergizi. Daun kelor menjadi salah satu pilihan lantaran mengandung sejumlah vitamin dan antioksidan.
-"Tim peneliti Universitas Indonesia (UI) dan IPB menemukan kandidat antivirus dari bahan alam Indonesia. Golongan senyawa tersebut antara lain hesperidin, rhamnetin, kaempferol, kuersetin dan myricetin yang terk
-Salah satu produk alternatif pangan, banyak diminati dimancanegara ;)
-Produk ini dapat disimpan selama 24 bulan sejak tanggal pembuatan di dalam wadah tertutup pada suhu kamar dan kelembaban rendah. Produk dapat dipesan dengan skala industri atau untuk skala kecil seperti untuk penelitian.
-- Berbentuk teh celup (dengan teabag)
-- Dikonsumsi seperti teh pada umumnya, bisa ditambahkan madu agar lebih nikmat
-- Dapat dikonsumsi 3- x sehari, sesuai kebutuhan.
-Isi : 30 tea bag
-Berat Bersih : 30 x 2 gram
-(*)Aman untuk ibu ham dan menyusui
-Manfaat utama Teh Daun Kelor untuk meningkatkan imunitas.
-Manfaat lainnya :
-1. Menyehatkan kulit
-2. Mengatasi diabetes
-3. Menyehatkan mata
-4. Mencegah kanker
-5. Mengobati Rematik
-6. Mengatasi Cacingan
-7. Mengobati Alergi
-8. Mengobati Herpes, Kurap dan Luka bernanah
-9. Menghilangkan Flek wajah
-10. Penghancur batu ginjal
-Keunggulan :
-1. 100 % Organik
-2 Tanaman dibudidayakan intensif tanpa pupuk dan pestisida kimia
-3. Daun diproses secara higienis untuk mencegah kontaminasi bakteri
-4. Teh daun dikemas dengan rapi</t>
+          <t>2 terjual</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>4.9</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Herbal Essences Shampoo Bio Renew Golden Moringa 400 ml</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Rp110.000</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>P&amp;G Official Store</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Jakarta Timur</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>2rb+ terjual</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/pgofficialstore/herbal-essences-shampoo-bio-renew-golden-moringa-400-ml?extParam=ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Herbal Essences Shampoo Bio Renew Golden Moringa 400 ml
-Note:
-- Harga yang tertera untuk 1 pcs Herbal Essences Shampoo Bio Renew Golden Moringa ukuran 400 ml
-Fungsi:
-Herbal Essences Bio:Renew Smooth Golden Moringa Oil Shampo dengan antioxidan esensial yang dapat membantu membersihkan dan melindungi rambut, untuk rambut yang lebih sehat. Jadikan rambut lebih mudah diatur dengan Herbal Essences Shampoo Bio Renew Golden Moringa. Sampo ini bebas paraben, bebas pewarna, dan bebas silikon. Benamkan diri Anda dalam aroma jeruk, bunga putih, dan air kelapa segar. Rambut halus dan sehat dengan pH seimbang dan aman untuk rambut yang diwarnai.
-Komposisi:
-Water, Sodium Laureth Sulfate, Sodium Citrate, Cocamidopropyl Betaine, Stearyl Alcohol, Sodium Lauryl Sulfate, Sodium Chloride, Sodium Xylenesulfonate, Fragrance, Moringa Oleifera Seed Oil, Histidine, Aloe Barbadensis Leaf Juice, Ecklonia Radiata Extract,Cetyl Alcohol, Citric Acid, Sodium Benzoate, Polyquaternium-6, Guar Hydroxypropyltrimonium Chloride, Tetrasodium Edta, Trihydroxystearin, Methylchloroisothiazolinone, Methylisothiazolinone.
-Cara Penggunaan:
-Basahkan rambut, tuangkan shampo lalu gosok rambut dan kulit kepala. Diamkan sampo 2-3 menit agar zat aktif bekerja maksimal, dan bilas hingga bersih dengan air hangat/dingin.
-Opsi Paket Lain:
-X2 %3D7377294
-X3 %3D7377294</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Daun kelor 35gram / moringa leaf / moringa leaves</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Rp9.000</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>food Service Ingredients</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Jakarta Timur</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>2 terjual</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
           <t>https://www.tokopedia.com/foodserviceingre/daun-kelor-35gram-moringa-leaf-moringa-leaves?extParam=ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>Daun kelor / moringa leaves
 Ready stok
@@ -2056,97 +2104,54 @@
 Daun kelor adalah salah satu tanaman yang kaya nutrisi yang punya manfaat penting dalam kesehatan tulang dan penyerapan kalsium. Daun kelor juga punya manfaat kecantikan, khususnya untuk kulit wajah. Beberapa khasiat daun kelor untuk wajah diantaranya mencegah penuaan dini hinggga mengobati jerawat.</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Pure Organic Moringa Oil Minyak Kelor Murni 20mL</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Rp49.000</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>fortune oke</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Jakarta Selatan</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>100+ terjual</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/fortuneoke/pure-organic-moringa-oil-minyak-kelor-murni-20ml?extParam=ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Pure Organic Moringa Oil 20mL
-Manfaat :
-- Mencegah penuaan kulit
-- Melembapkan kulit
-- Melindungi kulit dari radikal bebas
-- Membuat kulit lebih halus
-- Membantu regenerasi kulit
-Cara pemakaian :
-Teteskan 2-3 tetes serum Moringa Oil ke area wajah.
-Usap dan pijat secara perlahan sampai merata pada kulit.
-Diamkan beberapa saat agar meresap ke kulit wajah.
-Gunakan 2x sehari untuk hasil yang maksimal.</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Moringa Powder 350 gram Bubuk Daun Kelor Authentic Safiya Food</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Rp36.000</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>Rp34.490</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Safiya Food Official</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Jakarta Barat</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>1rb+ terjual</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/safiyafood/moringa-powder-350-gram-bubuk-daun-kelor-authentic-safiya-food?extParam=ivf%3Dtrue%26keyword%3Dmoringa&amp;src=topads</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>Assalamualaikum, Safiyan!
 Selamat Datang di Official Store Safiya Food.
@@ -2163,7 +2168,194 @@
 Customer Service and Hotline 24 Hours</t>
         </is>
       </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Ekstrak Daun Kelor Pro Moringa 50 Kapsul Izin BPOM - Ash Shihhah</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Rp20.500</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>grosirherbalsurabaya</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>100+ terjual</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/grosirherbalsurabaya/ekstrak-daun-kelor-pro-moringa-50-kapsul-izin-bpom-ash-shihhah?extParam=ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Ektrak Daun Kelor
+Produksi: CV Ash Shihhah
+Isi : 50 Kapsul
+Izin BPOM : POM TR233007061
+Moringa oleifera merupakan tanaman asli India utara yang juga dapat tumbuh di tempat tropis dan subtropis lainnya, seperti
+Asia dan Afrika. Pengobatan tradisional telah menggunakan daun, bunga, biji, dan akar tanaman ini selama berabad-abad.
+Secara tradisional, daun ini telah digunakan sebagai obat untuk kondisi seperti diabetes, peradangan, dan infeksi bakteri, virus , dll.
+Untuk mendapatkan manfaat dari daun Kelor / Moringa, bisa anda dapatkan khasiatnya di KAPSUL PRO MORINGA ASH SHIHHAH EKSTRAK DAUN KELOR
+Manfaat:
+- Meningkatkan sistem kekebalan tubuh
+- Menyediakan nutrisi untuk mata dan otak
+- Meningkatkan metabolisme tubuh
+- Mendorong perbaikan struktur sel dalam tubuh
+- Bertindak sebagai antioksidan
+- Mencegah gangguan fungsi hati &amp; ginjal
+- Meningkatkan fungsi pencernaan
+- Meningkatkan sistem peredaran darah
+- Membantu mengatasi penyakit lambung
+- Mencegah penyakit diabetes
+- Merangsang produksi ASI
+- Membantu mengobati penyakit liver
+- Menurunkan tekanan darah tinggi
+- Mencegah penyakit jantung
+- Membantu penyembuhan sperma encer
+- Membantu keluhan buah zakar
+- Dan masih banyak khasiat lainnya.
+Aturan Minum :
+3x sehari 2 kapsul</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Pure Organic Moringa Oil Minyak Kelor Murni 20mL</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Rp49.000</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>fortune oke</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>100+ terjual</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/fortuneoke/pure-organic-moringa-oil-minyak-kelor-murni-20ml?extParam=ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Pure Organic Moringa Oil 20mL
+Manfaat :
+- Mencegah penuaan kulit
+- Melembapkan kulit
+- Melindungi kulit dari radikal bebas
+- Membuat kulit lebih halus
+- Membantu regenerasi kulit
+Cara pemakaian :
+Teteskan 2-3 tetes serum Moringa Oil ke area wajah.
+Usap dan pijat secara perlahan sampai merata pada kulit.
+Diamkan beberapa saat agar meresap ke kulit wajah.
+Gunakan 2x sehari untuk hasil yang maksimal.</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Natur Shampoo Moringa &amp; Sweet Almond Oil</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Rp43.000</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Rp30.062</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Natur</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Jakarta Timur</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>750+ terjual</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/backtonatur/natur-shampoo-moringa-sweet-almond-oil?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26whid%3D364279&amp;src=topads</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Dari hasil analisa kandungan nutrisi Moringa Oliefera ini memiliki manfaat sangat baik untuk perawatan rambut rusak seperti bercabang dan pecah-pecah.
+Ekstrak Moringa Oliefera dan Sweet Almond Oil yang terkandung dalam Natur shampoo mampu menutrisi dan memperbaiki struktur helaian rambut dan mengembalikannya kembali sehat alami.
+Fungsi :
+Menutrisi dan merawat rambut rusak.
+Aktif Ingredients :
+Ekstrak Moringa Oliefera &amp; Sweet Almond Oil
+Penggunaan :
+Digunakan sehari-hari.
+Ukuran :
+140 ml"</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
@@ -2177,26 +2369,40 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>Rp105.000</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>Rp59.500</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>43%</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>NutriOneID</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Jakarta Utara</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>1rb+ terjual</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/nutrioneid/daun-kelor-bubuk-moringa-powder-premium-original-nutrione?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/nutrioneid/daun-kelor-bubuk-moringa-powder-premium-original-nutrione?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>Nutrione Daun Kelor Bubuk (MoringaPowder)
 Daun kelor merupakan tanaman asli India yang mengandung protein, vitamin, dan mineral guna melawan malnutrisi. Daun kelor adalah salah satu sumber makanan yang bermanfaat untuk kesehatan
@@ -2225,7 +2431,7 @@
 - Bila ada kendala/pertanyaan harap menghubungi kami terlebih dahulu lewat chat</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
@@ -2239,30 +2445,40 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>Rp64.900</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>Rp29.900</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>54%</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>Safiya Food Official</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Jakarta Barat</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>50+ terjual</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/safiyafood/safiya-moringa-latte-bubuk-minuman-daun-kelor-200-gram?extParam=ivf%3Dtrue%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/safiyafood/safiya-moringa-latte-bubuk-minuman-daun-kelor-200-gram?extParam=ivf%3Dtrue%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>Assalamualaikum Safiyan
 Selamat Datang di Official Store Safiya Food
@@ -2285,7 +2501,7 @@
 #HealthyTastyAffordable #Yourforeverhealthypartner</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -2299,30 +2515,40 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>Rp189.000</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>Rp119.000</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>37%</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>Kundal Official</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Kab. Bekasi</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>750+ terjual</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/kundalofficial/kundal-honey-macadamia-pure-body-wash-acacia-moringa-made-in-korea?extParam=ivf%3Dtrue%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/kundalofficial/kundal-honey-macadamia-pure-body-wash-acacia-moringa-made-in-korea?extParam=ivf%3Dtrue%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>Natural Body Wash buatan Korea yang kaya akan busa dan wangi yang menyegarkan namun tetap mengunci kelembaban kulit anda!
 Dengan Surfaktan dari Bahan tumbuhan dan pH Balance mencegah potensi iritasi pada kulit.
@@ -2340,7 +2566,7 @@
 Operational Note: Pengiriman akan dilakukan H+1 (Senin s/d Jumat, di luar Hari Libur Nasional)</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -2357,27 +2583,29 @@
           <t>Rp12.000</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
         <is>
           <t>Essenli Official Shop</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Semarang</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>100+ terjual</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/essenliofficial/daun-kelor-bubuk-organic-moringa-powder-1730794984019428966?extParam=ivf%3Dtrue%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/essenliofficial/daun-kelor-bubuk-organic-moringa-powder-1730794984019428966?extParam=ivf%3Dtrue%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>Kemasan : Pouch 50gr, Jar 250gr
 Izin Dishanpan PSAT-PDUK 337407010990223
@@ -2391,7 +2619,7 @@
 #daunkelor #moringa #daunkelorbubuk #moringapowder</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
@@ -2408,27 +2636,29 @@
           <t>Rp18.500</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
         <is>
           <t>Musyaffa Herbal</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Kab. Bekasi</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>100+ terjual</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/musyaffaherbal/pro-moringa-bpom-baru-ekstrak-daun-kelor-ash-shihhah-50-kapsul?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/musyaffaherbal/pro-moringa-bpom-baru-ekstrak-daun-kelor-ash-shihhah-50-kapsul?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>Pro Moringa Kapsul Ekstrak Daun Kelor Ash Shihhah
 Produk Original
@@ -2454,7 +2684,7 @@
 Memberi perasaan sehat secara menyeluruh</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
@@ -2471,27 +2701,29 @@
           <t>Rp172.500</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>Naturama Store</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Jakarta Selatan</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>1rb+ terjual</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/naturama/moringa-oleifera-180-kapsul-naturama-bubuk-daun-kelor-organik?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/naturama/moringa-oleifera-180-kapsul-naturama-bubuk-daun-kelor-organik?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>Moringa Oleifera Leaf Powder Organic
 Bubuk Daun Kelor Murni Organik
@@ -2518,7 +2750,7 @@
 #moringaoleifera</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
@@ -2527,94 +2759,45 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Pome Optimun Elderberry &amp; Moringa Gummy - 60 Butir</t>
+          <t>Teh kelor organik (Moringa Drip Tea)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Rp149.000</t>
+          <t>Rp75.900</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Beeru Official Store</t>
+          <t>Rp71.346</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Tangerang Selatan</t>
+          <t>6%</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>100+ terjual</t>
+          <t>La Moringa Indonesia</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/beeruindonesia/pome-optimun-elderberry-moringa-gummy-60-butir?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
+          <t>Jakarta Selatan</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>POME OPTIMUN bantu optimalkan sistem imun dan memudahkan Kamu untuk tidak mudah sakit tanpa harus mengonsumsi obat-obatan atau suplemen lainnya. POME OPTIMUN diformulasikan secara khusus untuk penuhi kebutuhan harianmu!
-POME OPTIMUN merupakan gummy / permen kenyal PERTAMA DI DUNIA yang memiliki kandungan ekstrak Black Elderberry dan ekstrak Daun Kelor (Moringa oleifera), lengkap diperkaya dengan vitamin C, vitamin D3, zink dan selenium.
-Kenapa harus POME OPTIMUN?
-- Secara Optimal memenuhi kebutuhan nutrisi untuk perkuat sistem imun dan aman dikonsumsi setiap hari
-- Diformulasikan dengan bahan-bahan terbaik dari Indonesia, Eropa dan USA
-- Mengandung Ekstrak Black European Elderberry (10% Antosianin) yang kaya akan antioksidan
-- Mengandung Ekstrak Daun Kelor yang punya kandungan vitamin C lima kali lebih banyak dari buah Jeruk
-- Mengandung jenis Vitamin D3, Zink dan Selenium yang lebih mudah diserap oleh tubuh
-- Warna asli alami dari kandungan Antosianin buah Elderberry
-- Lezat, praktis, mudah untuk dibawa dan dikonsumsi kemanapun!
-Tak hanya bantu optimalkan sistem imunmu secara praktis, POME OPTIMUN juga memiliki rasa minty yuzu yang refreshing! Nikmati gummy yang lezat dengan bentuk dan tekstur gummy yang menarik!
-100% Made in Indonesia, with world's best ingredients!
-Flavour/rasa : Fruity Yuzu Flavor, with refreshing mint aftertaste!
-Anjuran konsumsi : 2 gummy per hari
-BPOM : MD 224537007886
-Berat produk: 240 gr
-Isi : 60 butir @ 4 gr
-Komposisi: Air, Sirup Fruktosa, Gula, Vitamin C, Vitamin D3, Zinc Picolinate, L-Selenomethionine, Pembentuk Gel Pektin, Ekstrak Elderberry, Ekstrak Daun Kelor, Pengatur Keasaman (Asam Sitrat, Trinatrium Sitrat), Perisa Identik Yuzu, Perisa Sintetik Mint.</t>
+          <t>1rb+ terjual</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Teh kelor organik (Moringa Drip Tea)</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Rp71.346</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>La Moringa Indonesia</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Jakarta Selatan</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>1rb+ terjual</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/lamoringa/teh-kelor-organik-moringa-drip-tea-original-abf81?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
+          <t>https://www.tokopedia.com/lamoringa/teh-kelor-organik-moringa-drip-tea-original-abf81?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>SATU-SATUNYA MORINGA DRIP TEA DI INDONESIA
 RASA JAUH SEKALI DENGAN TEH KELOR CELUP.... JANGAN TERGIUR DENGAN TEH KELOR MURAHAN (TUBRUK &amp; BAG)
@@ -2658,7 +2841,68 @@
 Nah , Moriga Lovers banyak banget kan manfaat Moringa Drip Tea bagi kesehatan, langsung aja tambahkan ke keranjang belanja dan follow La Moringa Indonesia dapatkan DISKON menarik lainnya!</t>
         </is>
       </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Pome Optimun Elderberry &amp; Moringa Gummy - 60 Butir</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Rp149.000</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Beeru Official Store</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Tangerang Selatan</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>100+ terjual</t>
+        </is>
+      </c>
       <c r="H39" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/beeruindonesia/pome-optimun-elderberry-moringa-gummy-60-butir?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>POME OPTIMUN bantu optimalkan sistem imun dan memudahkan Kamu untuk tidak mudah sakit tanpa harus mengonsumsi obat-obatan atau suplemen lainnya. POME OPTIMUN diformulasikan secara khusus untuk penuhi kebutuhan harianmu!
+POME OPTIMUN merupakan gummy / permen kenyal PERTAMA DI DUNIA yang memiliki kandungan ekstrak Black Elderberry dan ekstrak Daun Kelor (Moringa oleifera), lengkap diperkaya dengan vitamin C, vitamin D3, zink dan selenium.
+Kenapa harus POME OPTIMUN?
+- Secara Optimal memenuhi kebutuhan nutrisi untuk perkuat sistem imun dan aman dikonsumsi setiap hari
+- Diformulasikan dengan bahan-bahan terbaik dari Indonesia, Eropa dan USA
+- Mengandung Ekstrak Black European Elderberry (10% Antosianin) yang kaya akan antioksidan
+- Mengandung Ekstrak Daun Kelor yang punya kandungan vitamin C lima kali lebih banyak dari buah Jeruk
+- Mengandung jenis Vitamin D3, Zink dan Selenium yang lebih mudah diserap oleh tubuh
+- Warna asli alami dari kandungan Antosianin buah Elderberry
+- Lezat, praktis, mudah untuk dibawa dan dikonsumsi kemanapun!
+Tak hanya bantu optimalkan sistem imunmu secara praktis, POME OPTIMUN juga memiliki rasa minty yuzu yang refreshing! Nikmati gummy yang lezat dengan bentuk dan tekstur gummy yang menarik!
+100% Made in Indonesia, with world's best ingredients!
+Flavour/rasa : Fruity Yuzu Flavor, with refreshing mint aftertaste!
+Anjuran konsumsi : 2 gummy per hari
+BPOM : MD 224537007886
+Berat produk: 240 gr
+Isi : 60 butir @ 4 gr
+Komposisi: Air, Sirup Fruktosa, Gula, Vitamin C, Vitamin D3, Zinc Picolinate, L-Selenomethionine, Pembentuk Gel Pektin, Ekstrak Elderberry, Ekstrak Daun Kelor, Pengatur Keasaman (Asam Sitrat, Trinatrium Sitrat), Perisa Identik Yuzu, Perisa Sintetik Mint.</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -2672,30 +2916,40 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>Rp57.375</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>Rp43.000</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>NutriBite</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Surabaya</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>50+ terjual</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/nutribite/dari-bumi-daun-kelor-moringa-bubuk-original-premium?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/nutribite/dari-bumi-daun-kelor-moringa-bubuk-original-premium?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>Dari Bumi Daun Kelor Moringa Bubuk Premium - Pure Organic
 Nomor P-IRT: 6103603650653-28
@@ -2715,7 +2969,7 @@
 Mengapa Memilih Daun Kelor Dari Bumi? Produk ini terbuat dari bahan organik berkualitas, murni, dan terjamin halal. Dengan kandungan nutrisi yang melimpah, ini adalah pilihan tepat untuk Anda yang ingin merawat kesehatan tubuh secara alami. Tambahkan ke keranjang Anda dan rasakan manfaat alami dari The Miracle Tree!</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -2729,30 +2983,40 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>Rp230.000</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>Rp218.000</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>Etawanesia Official</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Kab. Tangerang</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>100+ terjual</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/etawanesiaofficial/3-box-susu-etawanesia-ekstrak-moringa-folium-solusi-nafas-tulang?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/etawanesiaofficial/3-box-susu-etawanesia-ekstrak-moringa-folium-solusi-nafas-tulang?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>Susu ETAWANESIA / ETAWA BIRU
 𝐌𝐞𝐧𝐠𝐚𝐩𝐚 𝐇𝐚𝐫𝐮𝐬 𝐌𝐞𝐦𝐢𝐥𝐢𝐡 𝐒𝐮𝐬𝐮 𝐄𝐓𝐀𝐖𝐀𝐍𝐄𝐒𝐈𝐀 / 𝐄𝐓𝐀𝐖𝐀 𝐁𝐈𝐑𝐔 ?
@@ -2783,7 +3047,7 @@
 𝐒𝐮𝐬𝐮 𝐄𝐓𝐀𝐖𝐀𝐍𝐄𝐒𝐈𝐀 / 𝐄𝐓𝐀𝐖𝐀 𝐁𝐈𝐑𝐔 𝐚𝐝𝐚𝐥𝐚𝐡 𝐩𝐢𝐥𝐢𝐡𝐚𝐧 𝐲𝐚𝐧𝐠 𝐭𝐞𝐩𝐚𝐭 𝐮𝐧𝐭𝐮𝐤 𝐦𝐞𝐧𝐣𝐚𝐠𝐚 𝐤𝐞𝐬𝐞𝐡𝐚𝐭𝐚𝐧 𝐝𝐚𝐧 𝐦𝐞𝐧𝐢𝐧𝐠𝐤𝐚𝐭𝐤𝐚𝐧 𝐤𝐮𝐚𝐥𝐢𝐭𝐚𝐬 𝐡𝐢𝐝𝐮𝐩 𝐀𝐧𝐝𝐚 𝐝𝐚𝐧 𝐤𝐞𝐥𝐮𝐚𝐫𝐠𝐚. 𝐃𝐚𝐩𝐚𝐭𝐤𝐚𝐧 𝐦𝐚𝐧𝐟𝐚𝐚𝐭𝐧𝐲𝐚 𝐬𝐞𝐤𝐚𝐫𝐚𝐧𝐠 𝐣𝐮𝐠𝐚 𝐝𝐚𝐧 𝐧𝐢𝐤𝐦𝐚𝐭𝐢 𝐤𝐞𝐬𝐞𝐡𝐚𝐭𝐚𝐧 𝐲𝐚𝐧𝐠 𝐨𝐩𝐭𝐢𝐦𝐚𝐥 𝐬𝐞𝐭𝐢𝐚𝐩 𝐡𝐚𝐫𝐢</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -2792,67 +3056,50 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Ekstrak Daun Kelor Pro Moringa 50 Kapsul Izin BPOM - Ash Shihhah</t>
+          <t>The Body Shop Moringa Body Lotion 200ml</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Rp20.500</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>grosirherbalsurabaya</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Surabaya</t>
-        </is>
-      </c>
+          <t>Rp319.000</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>100+ terjual</t>
+          <t>The Body Shop Indonesia</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/grosirherbalsurabaya/ekstrak-daun-kelor-pro-moringa-50-kapsul-izin-bpom-ash-shihhah?extParam=ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
+          <t>Tangerang Selatan</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Ektrak Daun Kelor
-Produksi: CV Ash Shihhah
-Isi : 50 Kapsul
-Izin BPOM : POM TR233007061
-Moringa oleifera merupakan tanaman asli India utara yang juga dapat tumbuh di tempat tropis dan subtropis lainnya, seperti
-Asia dan Afrika. Pengobatan tradisional telah menggunakan daun, bunga, biji, dan akar tanaman ini selama berabad-abad.
-Secara tradisional, daun ini telah digunakan sebagai obat untuk kondisi seperti diabetes, peradangan, dan infeksi bakteri, virus , dll.
-Untuk mendapatkan manfaat dari daun Kelor / Moringa, bisa anda dapatkan khasiatnya di KAPSUL PRO MORINGA ASH SHIHHAH EKSTRAK DAUN KELOR
-Manfaat:
-- Meningkatkan sistem kekebalan tubuh
-- Menyediakan nutrisi untuk mata dan otak
-- Meningkatkan metabolisme tubuh
-- Mendorong perbaikan struktur sel dalam tubuh
-- Bertindak sebagai antioksidan
-- Mencegah gangguan fungsi hati &amp; ginjal
-- Meningkatkan fungsi pencernaan
-- Meningkatkan sistem peredaran darah
-- Membantu mengatasi penyakit lambung
-- Mencegah penyakit diabetes
-- Merangsang produksi ASI
-- Membantu mengobati penyakit liver
-- Menurunkan tekanan darah tinggi
-- Mencegah penyakit jantung
-- Membantu penyembuhan sperma encer
-- Membantu keluhan buah zakar
-- Dan masih banyak khasiat lainnya.
-Aturan Minum :
-3x sehari 2 kapsul</t>
+          <t>250+ terjual</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/tbs-official/the-body-shop-moringa-body-lotion-200ml?extParam=ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Pelembap tubuh bertekstur milk dengan aroma moringa yang lembut dan menyegarkan. Diperkaya dengan seed oil dari moringa pods sebagai kandungan pelembap. Membantu melembapkan kulit tubuh seharian dan tidak menyebabkan rasa lengket pada kulit.
+Pelembab tubuh bertekstur milk
+Dengan wangi bunga moringa yang menawan
+Tidak lengket saat dipakai
+Lebih cepat meresap
+Tips
+Gunakan produk di pagi dan malam hari setelah mandi,agar kulit tetap terjaga kelembapan dan kehalusannya,tuangkan produk secukupnya lalu hangatkan pada tangan dan aplikasikan pada seluruh tubuh dengan memijat secara perlahan agar produk lebih cepat meresap
+#BodyLotion #TheBodyShop #PelelmbabTubuh #Pelembab #Moringa #BodyMilk
+Expired date minmal 12 bulan</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
@@ -2869,27 +3116,29 @@
           <t>Rp35.000</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>LHI Official</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Bogor</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>2 terjual</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/lhiofficial/moringa-liza-herbal-green-tea-celup-untuk-kekebalan-tubuh?extParam=ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>Terbuat dari daun teh hijau, daun kelor dan yang dikemas secara higienis dengan pelindung aluminium foil.
 Khasiat Lain : Membantu memelihara kesehatan, menigkatkan system kekebalan tubuh, meningkatkan kesehatan pencernaan
@@ -2897,7 +3146,7 @@
 Isi 25 kantong @2 gram</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -2911,30 +3160,40 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>Rp85.000</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>Rp55.000</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
         <is>
           <t>Bleuherbz Natural</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Jakarta Barat</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>100+ terjual</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/bleuherbznatural/bleuherbz-moringa-oleifera-pure-extract-green-superfood-original-100?extParam=cmp%3D1%26ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/bleuherbznatural/bleuherbz-moringa-oleifera-pure-extract-green-superfood-original-100?extParam=ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>TUMBUHAN HERBAL AJAIB MORINGA OLEIFERA!
 Kapsul dengan 500mg bubuk Moringa Oleifera pilihan yang diproduksi dengan esktrak pilihan yang terbaik dan terjamin kesegaran dan kualitas secara higienis untuk menjaga khasiat alami daun kelor (Moringa Oleifera)
@@ -2968,7 +3227,7 @@
 LINE : @Bleuherbz</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -2977,58 +3236,65 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Moringa Kapsul Daun Kelor Naturama Premium Organik</t>
+          <t>MORINGA OLEIFERA LEAF POWDER 60 CAPSULES BUBUK DAUN KELOR ORGANIK</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Rp288.500</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Naturama Store</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
+          <t>Rp66.500</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>naturamacare</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
         <is>
           <t>Jakarta Selatan</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>100+ terjual</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/naturama/moringa-kapsul-daun-kelor-naturama-premium-organik?extParam=ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
-        </is>
-      </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Kapsul Moringa Oleifera 
-Isi 300 Kapsul @500mg
-Kemasan Botol Hdpe Foodgrade
-Premium Quality menggunakan kapsul halal MUI
+          <t>90+ terjual</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/naturamacare/moringa-oleifera-leaf-powder-60-capsules-bubuk-daun-kelor-organik?extParam=ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Moringa Oleifera Leaf Powder Organic
+Bubuk Daun Kelor Murni Organik
 Tidak mengandung pewarna atau pengawet.
-Ingredients: 100% Bubuk Moringa Oleifera
-Exp date : 2025
-Moringa merupakan tanaman yang berasal dari daerah India, Pakistan, Bangladesh, dan Afganistan. Itu juga tumbuh di daerah tropis. Daun, kulit kayu, bunga, buah, biji, dan akar digunakan untuk membuat obat.
-Manfaat Moringa:
-Radang sendi dan nyeri sendi lainnya (rematik), asma, kanker, sembelit, diabetes, diare, kejang, sakit perut, tukak lambung dan usus, kejang usus, sakit kepala, masalah jantung , tekanan darah tinggi, batu ginjal, gejala menopause, gangguan tiroid, dan infeksi.
-Moringa juga diminum untuk mengurangi pembengkakan, sebagai antioksidan, mencegah kejang, meningkatkan gairah seks (sebagai afrodisiak), meningkatkan sistem kekebalan tubuh, dan meningkatkan produksi ASI. Beberapa orang menggunakannya sebagai suplemen gizi atau tonik. Ini juga digunakan sebagai "pil air" (diuretik).
-Saran penggunaan:
-1 Kapsul, di minum 3 kali sehari setelah makan.
-Ready Stok
-Silahkan di order.
-#moringacapsules
-#kapsuldaunkelor</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>4.9</t>
+Praktis dan higienis.
+Sudah di kemas dalam kapsul
+Isi 60 Kapsul
+Kemasan alumunium foil
+Moringa oleifera adalah tanaman asli India utara yang juga dapat tumbuh di tempat tropis dan sub tropis lainnya, seperti Asia dan Afrika. Pengobatan tradisional telah menggunakan daun, bunga, biji, dan akar tanaman ini selama berabad-abad.
+Ini secara tradisional telah digunakan sebagai obat untuk kondisi seperti:
+Diabetes
+Peradangan yang berlangsung lama
+Infeksi bakteri, virus, dan jamur
+Nyeri sendi
+Kesehatan jantung
+Kanker
+Takaran penggunaan:
+Cukup 2 kali sehari, pagi dan sore
+Ready Stock. (Jika produk tayang berarti ada stok)
+Silahkan di Order.
+#moringaleaf
+#puremoringa
+#moringaoleifera</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -3043,27 +3309,29 @@
           <t>Rp4.051</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
         <is>
           <t>Bumbu &amp; Rempah</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Bekasi</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>40+ terjual</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/bumbudanrempah/daun-kelor-bubuk-moringa-oleifera-leaf-powder-50-gram?extParam=ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>Daun Kelor Bubuk (Moringa Oleifera Leaf Powder)
 Daun Kelor Bubuk tanpa campuran / pengawet.
@@ -3096,7 +3364,7 @@
 * Untuk Konsultasi dan Keluhan Pelanggan dapat menghubungi kami melalui WhatsApp (WA) : 0877-0455-2210.</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>4.7</t>
         </is>
@@ -3113,34 +3381,36 @@
           <t>Rp9.500.000</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
         <is>
           <t>Landscape_Garden</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Kab. Bogor</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>4 terjual</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/landscapegarden/terbaru-kelor-africa-moringa-3-4-5-6-meter?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/landscapegarden/terbaru-kelor-africa-moringa-3-4-5-6-meter?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>BUDGET BERAPAPUN BISA BIKIN TAMAN IMPIAN ANDA TERWUJUD
 tukang taman yang berdiri sejak 2008 yang bergerak di bidang pertamanan dengan segala gudang pengalaman di bidang tersebut.
 kami siap melayani anda.teman-teman juga bisa kok request taman sendiri. so, tunggu apalagi ayo bikin taman impian anda supaya lingkungan anda bebas polusi dan lebih sejuk pastinya. free konsultasi/survey sejabodetabek</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -3154,30 +3424,40 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>Rp235.000</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>Rp213.000</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>Elora Beauty Store</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Jakarta Barat</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>1rb+ terjual</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/elorabeauty/moringa-super-drink-tinggi-protein-1-box-12-sachet-susu-sereal-rasa-cokelat-minuman-whey-protein-minuman-soy-oat-rasa-dark-chocolate-minuman-sehat-jaga-imun-minuman-sehat-untuk-sarapan-meal-replacement-1729583363567421717?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/elorabeauty/moringa-super-drink-tinggi-protein-1-box-12-sachet-susu-sereal-rasa-cokelat-minuman-whey-protein-minuman-soy-oat-rasa-dark-chocolate-minuman-sehat-jaga-imun-minuman-sehat-untuk-sarapan-meal-replacement-1729583363567421717?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>1 Box Moringa Super - Drink Tinggi Protein (12 SACHETS X 50GR)
 MORINGA SUPER-DRINK TINGGI PROTEIN &amp; KAYA VITAMIN
@@ -3195,7 +3475,7 @@
 Elora Fully Yummy dapat diminum kapan saja (pagi/siang/malam).</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
@@ -3212,27 +3492,29 @@
           <t>Rp31.912</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
         <is>
           <t>AYUCOSMETICS</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Bekasi</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>100+ terjual</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/ayucosmetics-1/natur-hair-conditioner-165ml-gingseng-aloe-vera-moringa-argan-oil-52c6b?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/ayucosmetics-1/natur-hair-conditioner-165ml-gingseng-aloe-vera-moringa-argan-oil-52c6b?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>Natur Conditioner 165ml
 Terdiri Dari:
@@ -3256,7 +3538,7 @@
 -Membuat rambuk tampak halus, sehat, berkilau, dan mudah diatur</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -3273,27 +3555,29 @@
           <t>Rp12.000</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
         <is>
           <t>Morifa Official</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Jakarta Barat</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>500+ terjual</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/morifa-official/biji-kelor-kupas-moringa-obat-herbal-diabetes-jantung-hipertensi-50gr?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/morifa-official/biji-kelor-kupas-moringa-obat-herbal-diabetes-jantung-hipertensi-50gr?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>Biji Kelor Kupas Moringa Obat Herbal Mengontrol Gula Darah Penyakit Jantung Kanker Kronis Pure Organic
 Spesifikasi dari Produk Biji Kelor Kupas :
@@ -3321,7 +3605,7 @@
 Mohon lakukan video unboxing ketika paket diterima maksimal 1x24 jam setelah barang di terima. Proses klaim harus disertai dengan video</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
@@ -3338,27 +3622,29 @@
           <t>Rp12.000</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
         <is>
           <t>Rempah Bu Risma</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Kab. Bekasi</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>500+ terjual</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/rempahburisma/daun-kelor-500-gram-kering-premium-daun-moringa-50-gram-015ac?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/rempahburisma/daun-kelor-500-gram-kering-premium-daun-moringa-50-gram-015ac?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>Selamat datang di REMPAH BU RISMA
 Anda berada di toko yang tepat
@@ -3392,7 +3678,7 @@
 #Kelor #Herbs #Herbalampuh #Merunggai #Alami</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
@@ -3401,35 +3687,81 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>daun kelor kering moringa oliefera</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Rp8.999</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>mishellashop</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Jakarta Utara</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>1rb+ terjual</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/mishellashop/daun-kelor-kering-moringa-oliefera-daun-kelor-6fc04?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Ready stock paket murah Daun kelor kering isi 100gram harap memesan per 1 pesanan maks 1kg karena dikhawatirkan kena volume jika lbh dr 1kg. paket murah Daun kelor kering isi 100gram++ Daun kelor kering ini bisa untuk konsumsi, dijadikan masker untuk wajah atau pun dijadikan teh diseduh dengan air. daun kelor merupakan salah satu suplemen herbal alami yang bermanfaat sebagai anti kanker, menurunkan kolesterol dan memelihara kesehatan tubuh secara alami. Moringa oleifera atau lebih sering disebut sebagai pohon kelor adalah tanaman dari suku Moringacea yang kaya akan manfaat bagi kesehatan tubuh. Kandungan vitamin C, vitamin A dan Potasium dalam Daun Kelor sangatlah tinggi sehingga sangat baik jika dikonsumsi secara rutin untuk menjaga kesehatan tubuh. Daun kelor mengandung 3 kali potasium daripada pisang,4 kali vitamin A dari wortel,25 kali zat besi daripada bayam 7 kali vitamin c dari pada jeruk kali kalsium susu dan 3 kali protein yogurt. Manfaat daun kelor: Membantu pencernaan Membantu penglihatan mata Mengurangi tekanan darah Menurunkan kolesterol Menjaga kesehatan tubuh Membantu mengeluarkan toksin dlm tubuh Menyehatkan kulit Mangatasi diabetes Mencegah kanker Membantu menyembuhkan rematik Mengatasi asam urat Cara pemakaian pada umumnya: Ambil daun kelor secukupnya,lalu rebus dgn air panas.diamkan sampai berubah warna,lalu saring ampasnya. Setelah itu minum air rebusan daun kelor. Bisa jg di jadikan sop utk membantu mmpercepat penyembuhan.</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
           <t>Xemenry Organic Moringa 100% Pure 1000mg 120Capsules</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Rp250.000</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
         <is>
           <t>Official Glucoactive</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>Jakarta Barat</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>27 terjual</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/officialglucoactive/xemenry-organic-moringa-100-pure-1000mg-120capsules?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/officialglucoactive/xemenry-organic-moringa-100-pure-1000mg-120capsules?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>Moringa
 KAPSUL MORINGA PREMIUM: Nikmati manfaat 100% bubuk daun kelor organik dan suplemen Moringa 120. Kapsul kami terbuat dari bubuk kelor organik dan tidak teroksidasi untuk mempertahankan nutrisi. Tidak ada bahan pengisi, pengikat atau ekstrak yang digunakan untuk memastikan efisiensi tinggi.
@@ -3441,44 +3773,46 @@
 Produk ini bukan obat dan tidak dapat mengklaim khasiat terapeutiknya, juga tidak dapat berfungsi sebagai pengganti obat.</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>Kapsul Daun Kelor Moringa - Kapsul Kelor Curah Tanpa Penanda</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B54" t="inlineStr">
         <is>
           <t>Rp375.000</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
         <is>
           <t>Moringa Organik Indonesia Official</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Kab. Blora</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>10rb+ terjual</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/kelorina/kapsul-daun-kelor-moringa-kapsul-kelor-curah-tanpa-penanda?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/kelorina/kapsul-daun-kelor-moringa-kapsul-kelor-curah-tanpa-penanda?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>KAPSUL CURAH UNTUK REFILL, TANPA LABEL (HANYA ADA KODE EXPIRED DAN PRODUKSI, KHUSUS UNTUK YANG MAU REFILL DARI PEMBELIAN KAPSUL BERLABEL
 Link Produk Kapsul Berlabel: https://www.tokopedia.com/kelorina/kapsul-daun-kelor-organik
@@ -3507,124 +3841,138 @@
 Meskipun banyak literatur menyebutkan Kelor memiliki khasiat obat yang terbukti secara ilmiah. Bahkan Kitab Ayur Veda menyebutkan mampu mengatasi 300 penyakit, PT Moringa Organik Indonesia TIDAK PERNAH menyatakan bahwa Kelor adalah Obat, tetapi makanan bernutrisi.</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>KUNDAL Moisture Body Lotion Acacia Moringa 500ml</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Rp129.000</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Kundal Official</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Kab. Bekasi</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>500+ terjual</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/kundalofficial/kundal-moisture-body-lotion-acacia-moringa-500ml?extParam=ivf%3Dtrue%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>KUNDAL Honey amp; Macadamia Body Lotion Acacia Moringa (Made in Korea) Body Lotion buatan Korea dari Kundal diperkaya nutrisi serum untuk mendapatkan kulit yang lebih lembab, cerah dan kenyal! * Terdaftar di BPOM * 82% Aloe Barbadensis Leaf Juice * Mengandung 2,000ppm Honey Extract amp; 2,000ppm Macadamia Ternifolia Seed Extract * Dengan 23 ekstrak tumbuhan alami * Mengandung Peanut Oil, Jojoba Oil, Camellia Oil dan Meadowfoam Oil * Mengandung Niacinamide yang dapat membantu mencerahkan kulit * Mengandung Adenosine yang dapat membantu menjaga kekencangan kulit * Melembabkan kulit hingga Dewy * Non Sticky dan ringan di kulit * Tidak mengandung bahan berbahaya Ukuran : 500ml Wangi : Acacia Moringa Made in Korea BPOM :NA26200100118 Operational Note: Pengiriman akan dilakukan H+1 (Senin s/d Jumat, di luar Hari Libur Nasional)</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>4.9</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Bibit pohon moringa /  pohon kelor afrika</t>
+          <t>KUNDAL Moisture Body Lotion Acacia Moringa 500ml</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Rp250.000</t>
+          <t>Rp210.000</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Nuansa Taman Baru16</t>
+          <t>Rp129.000</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Kab. Bogor</t>
+          <t>39%</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>11 terjual</t>
+          <t>Kundal Official</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/nuansatamanbaru16/bibit-pohon-moringa-pohon-kelor-afrika?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr"/>
+          <t>Kab. Bekasi</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>500+ terjual</t>
+        </is>
+      </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>https://www.tokopedia.com/kundalofficial/kundal-moisture-body-lotion-acacia-moringa-500ml?extParam=ivf%3Dtrue%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>KUNDAL Honey amp; Macadamia Body Lotion Acacia Moringa (Made in Korea) Body Lotion buatan Korea dari Kundal diperkaya nutrisi serum untuk mendapatkan kulit yang lebih lembab, cerah dan kenyal! * Terdaftar di BPOM * 82% Aloe Barbadensis Leaf Juice * Mengandung 2,000ppm Honey Extract amp; 2,000ppm Macadamia Ternifolia Seed Extract * Dengan 23 ekstrak tumbuhan alami * Mengandung Peanut Oil, Jojoba Oil, Camellia Oil dan Meadowfoam Oil * Mengandung Niacinamide yang dapat membantu mencerahkan kulit * Mengandung Adenosine yang dapat membantu menjaga kekencangan kulit * Melembabkan kulit hingga Dewy * Non Sticky dan ringan di kulit * Tidak mengandung bahan berbahaya Ukuran : 500ml Wangi : Acacia Moringa Made in Korea BPOM :NA26200100118 Operational Note: Pengiriman akan dilakukan H+1 (Senin s/d Jumat, di luar Hari Libur Nasional)</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>4.9</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>Bibit pohon moringa /  pohon kelor afrika</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Rp250.000</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Nuansa Taman Baru16</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Kab. Bogor</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>11 terjual</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/nuansatamanbaru16/bibit-pohon-moringa-pohon-kelor-afrika?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
           <t>Dari Bumi Paket Bundling Daun Kelor Bubuk Moringa 400 Gram Dan Madu Murni Akasia 350 Gram Raw Honey Asli</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t>Rp75.000</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
         <is>
           <t>daribumiofficial</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Jakarta Barat</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>500+ terjual</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/daribumiofc/dari-bumi-paket-bundling-daun-kelor-bubuk-moringa-400-gram-dan-madu-murni-akasia-350-gram-raw-honey-asli?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/daribumiofc/dari-bumi-paket-bundling-daun-kelor-bubuk-moringa-400-gram-dan-madu-murni-akasia-350-gram-raw-honey-asli?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>1. Moringa Bubuk atau Daun Kelor Bubuk
 P-IRT 6103603650653-28
@@ -3638,44 +3986,46 @@
 AYO BUAT VIDEO UNBOXING PAKET MU, KARENA BILA TIDAK ADA VIDEO UNBOXING, KOMPLAIN TIDAK BISA DI KLAIM</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>SIDOMUNCUL DAUN KELOR ISI 50 KAPSUL MORINGA OLEIFERA</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t>Rp73.850</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
         <is>
           <t>GogoMeds</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Bandung</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>100+ terjual</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/gogomeds/sidomuncul-daun-kelor-isi-50-kapsul-moringa-oleifera?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/gogomeds/sidomuncul-daun-kelor-isi-50-kapsul-moringa-oleifera?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>Khasiat :
 Baik untuk memelihara kesehatan, menurunkan kadar gula darah, dan membantu menurunkan kolesterol
@@ -3685,86 +4035,98 @@
 Minum 2 x sehari @ 1 kapsul sesudah makan</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Ekstrak Daun Kelor / Moringa Oleifera (Isi : 100 Kapsul) Obat Herbal</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Rp19.500</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>PBU OLSHOP</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Kab. Serang</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>750+ terjual</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/pbuolshop/ekstrak-daun-kelor-moringa-oleifera-isi-100-kapsul-obat-herbal?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Kapsul Daun Kelor KEMASAN BARU isi : 100 kapsul @500mg Kami Menjamin Barang yang Dikirimkan 100% Asli (original) Kualitas Super, Alami Tanpa Campuran Bahan Pengawet dan Pewarna. Kapsul Berizin Depkes Dan Hallal MUI Daun kelor (moringa oleifera) memiliki kandungan protein, karbohidrat, zat besi, magnesium, kalium, kalsium, vitamin C, vitamin A, dan asam folat. Dari kandungan inilah yang mengantarkan daun kelor menjadi rujukan pengobatan herbal dengan segudang manfaat. Serbuk Daun Kelor merupakan super food suplemen alami, sumber antioksidan alami, asam amino essensial, multivitamin dan mineral, serta sumber asupan nutrisi tinggi alami lainnya bagi tubuh. Organisasi kesehatan dunia WHO menganjurkan balita dan anak-anak masa pertumbuhan diberi asupan daun kelor karena kandungan gizi berlimpah dan aneka khasiatnya Manfaat Daun Kelor: - Membantu Mengatasi Gizi Buruk / Malnutrisi - Obat Untuk Beragam Penyakit Degeneratif - Sumber Vitamin dan Mineral Tinggi - Meningkatkan Imunitas Alamiah Tubuh - Nutrisi Untuk Kesehatan Mata dan Otak - Melancarkan Metabolisme Sel Tubuh - Menurunkan Lemak dan Kolesterol - Meningkatkan Fungsi Hati dan Ginjal - Memperindah Kulit - Bersifat Anti Aging / Penuaan Dini - Melancarkan Pencernaan - Detoksifikasi dan Menangkal Radikal Bebas - Bersifat Anti Infeksi dan Inflamasi / Peradangan - Kandungan beta-sitosterol Menjaga Gula Darah dan Pankreas - Menormalkan Tekanan Darah - Sebagai Tonic Penguat Jantung dan Hati - Melengkapi Kebutuhan Gizi Ibu Menyusui - Meningkatkan Kinerja Seksual dgn Meningkatkan Testosterone - Mengandung Niazimicin yg Menekan Perkembangan Sel Kanker - Kalium dan Fosfor Tinggi Menjaga Kekuatan Tulang dan Sendi - Mencegah Anemia Aturan pakai : - Pencegahan : 1-2 kapsul 2x sehari - Pengobatan : 2-4 kapsul 3x sehari (Dosis Dapat Ditingkatkan Bila Perlu) Silahkan Diorder...!!! Terima Kasih (^_^)</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>4.9</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>Ekstrak Daun Kelor / Moringa Oleifera (Isi : 100 Kapsul) Obat Herbal</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Rp19.500</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>PBU OLSHOP</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kab. Serang</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>750+ terjual</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/pbuolshop/ekstrak-daun-kelor-moringa-oleifera-isi-100-kapsul-obat-herbal?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Kapsul Daun Kelor KEMASAN BARU isi : 100 kapsul @500mg Kami Menjamin Barang yang Dikirimkan 100% Asli (original) Kualitas Super, Alami Tanpa Campuran Bahan Pengawet dan Pewarna. Kapsul Berizin Depkes Dan Hallal MUI Daun kelor (moringa oleifera) memiliki kandungan protein, karbohidrat, zat besi, magnesium, kalium, kalsium, vitamin C, vitamin A, dan asam folat. Dari kandungan inilah yang mengantarkan daun kelor menjadi rujukan pengobatan herbal dengan segudang manfaat. Serbuk Daun Kelor merupakan super food suplemen alami, sumber antioksidan alami, asam amino essensial, multivitamin dan mineral, serta sumber asupan nutrisi tinggi alami lainnya bagi tubuh. Organisasi kesehatan dunia WHO menganjurkan balita dan anak-anak masa pertumbuhan diberi asupan daun kelor karena kandungan gizi berlimpah dan aneka khasiatnya Manfaat Daun Kelor: - Membantu Mengatasi Gizi Buruk / Malnutrisi - Obat Untuk Beragam Penyakit Degeneratif - Sumber Vitamin dan Mineral Tinggi - Meningkatkan Imunitas Alamiah Tubuh - Nutrisi Untuk Kesehatan Mata dan Otak - Melancarkan Metabolisme Sel Tubuh - Menurunkan Lemak dan Kolesterol - Meningkatkan Fungsi Hati dan Ginjal - Memperindah Kulit - Bersifat Anti Aging / Penuaan Dini - Melancarkan Pencernaan - Detoksifikasi dan Menangkal Radikal Bebas - Bersifat Anti Infeksi dan Inflamasi / Peradangan - Kandungan beta-sitosterol Menjaga Gula Darah dan Pankreas - Menormalkan Tekanan Darah - Sebagai Tonic Penguat Jantung dan Hati - Melengkapi Kebutuhan Gizi Ibu Menyusui - Meningkatkan Kinerja Seksual dgn Meningkatkan Testosterone - Mengandung Niazimicin yg Menekan Perkembangan Sel Kanker - Kalium dan Fosfor Tinggi Menjaga Kekuatan Tulang dan Sendi - Mencegah Anemia Aturan pakai : - Pencegahan : 1-2 kapsul 2x sehari - Pengobatan : 2-4 kapsul 3x sehari (Dosis Dapat Ditingkatkan Bila Perlu) Silahkan Diorder...!!! Terima Kasih (^_^)</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
           <t>Moringa Powder Bubuk Daun Kelor Organik Daribumi Premium Pure Organic</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Rp52.000</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
         <is>
           <t>Rp49.500</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
         <is>
           <t>Happiness-Food</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Makassar</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>21 terjual</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/happiness-food/moringa-powder-bubuk-daun-kelor-organik-daribumi-premium-pure-organic-400-gr-11815?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/happiness-food/moringa-powder-bubuk-daun-kelor-organik-daribumi-premium-pure-organic-400-gr-11815?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>Kandungan nutrisi yang banyak dari daun kelor sendiri membuat tanaman ini dijuluki sebagai The Miracle Tree dan Tree of Life. Daun kelor memiliki manfaat menurunkan kolesterol, membantu mengontrol gula darah, melawan berbagai jenis kanker, mengurangi peradangan, meningkatkan kekebalan tubuh, meningkatkan ASI, mengobati insomnia, dan mengatur fungsi tiroid.
 Saran penyajian: Campurkan 1sdm Daun Kelor Dari Bumi ke dalam 250ml air hangat atau campurkan madu sesuai seMoringa Powder/Bubuk Daun Kelor
@@ -3789,44 +4151,115 @@
 Membeli berarti sama-sama SADAR &amp; PAHAM atas Syarat &amp; Ketentuan kami. Happy Shopping. ^|^</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Flozindo Moringa Powder / Daun Kelor Bubuk Organik Superfood Alami Kaya Nutrisi</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Rp17.993</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Rp17.093</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Flozindo</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Kab. Banyumas</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>1rb+ terjual</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/flozindo/flozindo-moringa-powder-daun-kelor-bubuk-organik-superfood-alami-kaya-nutrisi-slim-108gr-29f6a?extParam=ivf%3Dtrue%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Komposisi : Moringa Oleifera
+P-IRT No.2123304061431-25
+Tersedia kemasan 100 gr dan 500gr (Silahkan lihat di etalase)
+**Jika menginginkan untuk kemasan 1 kg silahkan request untuk 2 kemasan 500gr di jadikan 1 kg
+SPESIFIKASI :
+&gt; MURNI 100% DAUN KELOR HIJAU DIKERINGKAN
+&gt; Tanpa Campuran, Pengawet ataupun Pewarna
+&gt; Warna Hijau Segar Bright, krn diproses alami dan bukan daun Mati/Guguran Daun yg coklat tidak berkhasiat.
+&gt; Wangi Khas Moringa Segar, Wangi Moringa Sangat Tajam
+Khasiat dan Manfaat
+Serbuk Daun Kelorina merupakan suplemen alami, sumber antioksidan alami, asam amino essensial, multivitamin dan mineral, serta sumber asupan nutrisi tinggi alami lainnya bagi tubuh. Secara enpiris maupun hasil penelitian ilmiah, serbuk daun Kelor juga terbukti berhasil mengatasi malnutrisi (gizi buruk), berkhasiat obat untuk beragam penyakit degeneratif, digunakan sebagai anti kanker, anti tumor, anti diabetes, anti hipertensi, peluruh lemak jahat kolesterol, detoksifikasi, tonic penguat jantung, bahkan
+Penggunaan : sebagai campuran minuman (teh, kopi, jamu, juice, sirup, madu) dan makanan (aneka sayuran, nasi goreng, kue, agar-agar, puding, dll), serta bahan pengisi kapsul.
+Dosis : Dianjurkan untuk dikonsumsi 2-3 sendok teh per hari
+&gt; pagi 1 sendok teh malam 1 sendok teh9. Pewarna Makana
+Flozindo adalah produk alami untuk membantu memelihara kesehatan Anda. Terbuat dari bahan-bahan pilihan terbaik dari alam, Flozindo membantu menjaga keseimbangan tubuh, meningkatkan sistem kekebalan, dan memberikan energi ekstra untuk aktivitas harian Anda.
+Flozindo bukan hanya sekedar suplemen, tetapi juga teman terbaik Anda dalam perjalanan menuju hidup yang lebih sehat dan bahagia.
+Jangan tunggu lagi, mulailah perawatan alami Anda dengan kami
+Flozindo.id</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>Herbilogy Moringa (Daun kelor) Extract Powder - 100g</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>Rp117.000</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr">
         <is>
           <t>Herbilogy</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Kab. Bogor</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>500+ terjual</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/herbilogy/herbilogy-moringa-daun-kelor-extract-powder-100g-2f11?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>750+ terjual</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/herbilogy/herbilogy-moringa-daun-kelor-extract-powder-100g-2f11?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>Komposisi:
 Moringa (daun kelor) Extract Powder, tanpa penambahan gula, zat pewarna, perasa, atau bahan kimia obat.
@@ -3840,104 +4273,7 @@
 Tutup rapat kemasan, simpan di tempat sejuk dan kering, dan jauhkan dari jangkauan anak-anak.</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>daun kelor kering moringa oliefera</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Rp8.999</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>mishellashop</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Jakarta Utara</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>1rb+ terjual</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/mishellashop/daun-kelor-kering-moringa-oliefera-daun-kelor-6fc04?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Ready stock paket murah Daun kelor kering isi 100gram harap memesan per 1 pesanan maks 1kg karena dikhawatirkan kena volume jika lbh dr 1kg. paket murah Daun kelor kering isi 100gram++ Daun kelor kering ini bisa untuk konsumsi, dijadikan masker untuk wajah atau pun dijadikan teh diseduh dengan air. daun kelor merupakan salah satu suplemen herbal alami yang bermanfaat sebagai anti kanker, menurunkan kolesterol dan memelihara kesehatan tubuh secara alami. Moringa oleifera atau lebih sering disebut sebagai pohon kelor adalah tanaman dari suku Moringacea yang kaya akan manfaat bagi kesehatan tubuh. Kandungan vitamin C, vitamin A dan Potasium dalam Daun Kelor sangatlah tinggi sehingga sangat baik jika dikonsumsi secara rutin untuk menjaga kesehatan tubuh. Daun kelor mengandung 3 kali potasium daripada pisang,4 kali vitamin A dari wortel,25 kali zat besi daripada bayam 7 kali vitamin c dari pada jeruk kali kalsium susu dan 3 kali protein yogurt. Manfaat daun kelor: Membantu pencernaan Membantu penglihatan mata Mengurangi tekanan darah Menurunkan kolesterol Menjaga kesehatan tubuh Membantu mengeluarkan toksin dlm tubuh Menyehatkan kulit Mangatasi diabetes Mencegah kanker Membantu menyembuhkan rematik Mengatasi asam urat Cara pemakaian pada umumnya: Ambil daun kelor secukupnya,lalu rebus dgn air panas.diamkan sampai berubah warna,lalu saring ampasnya. Setelah itu minum air rebusan daun kelor. Bisa jg di jadikan sop utk membantu mmpercepat penyembuhan.</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>The Body Shop Moringa Hair Mist 100ml</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Rp269.000</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>The Body Shop Indonesia</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Tangerang Selatan</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>250+ terjual</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/tbs-official/the-body-shop-moringa-hair-mist-100ml?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Pengharum rambut multifungsi dengan kandungan Community Fair Trade moringa seed extract dari Rwanda dan vegan silk protein dengan aroma moringa yang lembut dan menawan. Membantu mengurangi aroma yang kurang sedap di rambut, memberikan kilau alami pada rambut dan melindungi rambut dari polusi.
-How to use:
-Semprotkan pada rambut yang setengah basah atau kering. Hindari penggunaan di kulit kepala jika rambut mudah lepek.
-Lengkapi dengan rangkaian Moringa dari The Body Shop lainnya untuk hasil yang lebih optimal.
-====== SYARAT &amp; KETENTUAN======
-1. The Body Shop Official Store dikelola oleh PT. Monica Hijau Lestari, selaku satu-satunya Distributor resmi di Indonesia yang diakui oleh The Body Shop International Ltd., dimana produk yang kami jual terjamin 100% Original &amp; bersertifikasi BPOM.
-2. Produk ready stock selama produk tersebut dapat dimasukkan ke dalam keranjang dan dapat diproses checkout.
-3. Produk yang kami kirimkan memiliki expiry date minimal 9 bulan atau lebih, dalam kondisi 100% baru.
-4. Proses pengemasan membutuhkan 1-2 hari kerja, sedangkan pengiriman Reguler &amp; Sameday akan di proses pada hari kerja Senin - Jumat (Tidak termasuk hari libur nasional).
-Status pesanan otomatis berubah jika pesanan sudah diterima oleh kurir jasa pengiriman.
-5. Pengajuan pembatalan pesanan tidak dapat kami setujui apabila pesanan sudah dipacking / diserahkan kepada kurir jasa pengiriman.
-6. Pengajuan komplain dapat diterima apabila dilakukan sebelum merubah status pesanan menjadi Selesai/Diterima, serta WAJIB memberikan bukti berupa foto &amp; video unboxing.
-The Body Shop Indonesia berhak untuk tidak menindaklanjuti pengajuan komplain yang tidak memenuhi syarat dan ketentuan ini.
-Silahkan chat kami jika kamu memiliki pertanyaan seputar produk atau membutuhkan bantuan lainnya :)</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -3946,77 +4282,45 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>benih DAUN KELOR moringa oleivera unggul berkualitas siap tanam</t>
+          <t>Flozindo Moringa Seeds / Biji Kelor Organik</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Rp1.000</t>
+          <t>Rp48.738</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Amanjaya_Store</t>
+          <t>Rp46.301</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Kab. Bandung</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>250+ terjual</t>
+          <t>Flozindo</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/amanjayastore-2/benih-daun-kelor-moringa-oleivera-unggul-berkualitas-siap-tanam?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
+          <t>Kab. Banyumas</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Benih Daun Kelor Moringa Oleifera kemasan repack plastik ziplock isi 10 Biji Benih bibit siap tanam. bisa juga digunakan untuk berbagai Produk olahan. Minyak biji kelor juga sangat bermanfaat bagi tubuh manusia untuk merawat kulit wajah,merawat kulit kepala,mengandung antioksidan tinggi,anti inflamasi,antibodi,mengandung protein tinggi Daun kelor merupakan salah satu jenis sayuran yang sekarang ini populer. Daun kelor asli Indonesia sudah terkenal manfaatnya sampai ke mancanegara. Banyak peneliti yang sudah menemukan manfaat daun kelor untuk kesehatan tubuh. Daun kelor sudah dianggap sebagai tanaman ajaib yang dapat digunakan sebagai obat herbal segala penyakit. Kandungan vitamin C daun kelor lebih banyak dari sayur maupun buah lainnya. Selain itu, kandungan vitamin A dan potasium dalam daun kelor sangat tinggi. Tidak heran jika daun kelor dianggap sebagai tanaman ajaib yang sangat bagus untuk tubuh. Manfaat Daun Kelor : Untuk Pengobatan Bagi Tubuh, Diabetes, Kanker Kandungan-kandungan dalam daun kelor ini membuat daun kelor mempunyai banyak sekali manfaat. Manfaat daun kelor bagi tubuh sangat banyak, mulai dari mengobati penyakit dalam sampai penyakit luar.</t>
+          <t>500+ terjual</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Flozindo Moringa Seeds / Biji Kelor Organik</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Rp46.301</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Flozindo</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>Kab. Banyumas</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>500+ terjual</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/flozindo/flozindo-moringa-seeds-biji-kelor-organik-sayap-500gr-435c7?extParam=ivf%3Dtrue%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
+          <t>https://www.tokopedia.com/flozindo/flozindo-moringa-seeds-biji-kelor-organik-sayap-500gr-435c7?extParam=ivf%3Dtrue%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>Komposisi : 100% Moringa Oleifera Seeds
 P-IRT No.2123304061431-25
@@ -4040,68 +4344,118 @@
 Flozindo.id</t>
         </is>
       </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>The Body Shop Moringa Hair Mist 100ml</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Rp269.000</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr"/>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>The Body Shop Indonesia</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Tangerang Selatan</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>250+ terjual</t>
+        </is>
+      </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>https://www.tokopedia.com/tbs-official/the-body-shop-moringa-hair-mist-100ml?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Pengharum rambut multifungsi dengan kandungan Community Fair Trade moringa seed extract dari Rwanda dan vegan silk protein dengan aroma moringa yang lembut dan menawan. Membantu mengurangi aroma yang kurang sedap di rambut, memberikan kilau alami pada rambut dan melindungi rambut dari polusi.
+How to use:
+Semprotkan pada rambut yang setengah basah atau kering. Hindari penggunaan di kulit kepala jika rambut mudah lepek.
+Lengkapi dengan rangkaian Moringa dari The Body Shop lainnya untuk hasil yang lebih optimal.
+====== SYARAT &amp; KETENTUAN======
+1. The Body Shop Official Store dikelola oleh PT. Monica Hijau Lestari, selaku satu-satunya Distributor resmi di Indonesia yang diakui oleh The Body Shop International Ltd., dimana produk yang kami jual terjamin 100% Original &amp; bersertifikasi BPOM.
+2. Produk ready stock selama produk tersebut dapat dimasukkan ke dalam keranjang dan dapat diproses checkout.
+3. Produk yang kami kirimkan memiliki expiry date minimal 9 bulan atau lebih, dalam kondisi 100% baru.
+4. Proses pengemasan membutuhkan 1-2 hari kerja, sedangkan pengiriman Reguler &amp; Sameday akan di proses pada hari kerja Senin - Jumat (Tidak termasuk hari libur nasional).
+Status pesanan otomatis berubah jika pesanan sudah diterima oleh kurir jasa pengiriman.
+5. Pengajuan pembatalan pesanan tidak dapat kami setujui apabila pesanan sudah dipacking / diserahkan kepada kurir jasa pengiriman.
+6. Pengajuan komplain dapat diterima apabila dilakukan sebelum merubah status pesanan menjadi Selesai/Diterima, serta WAJIB memberikan bukti berupa foto &amp; video unboxing.
+The Body Shop Indonesia berhak untuk tidak menindaklanjuti pengajuan komplain yang tidak memenuhi syarat dan ketentuan ini.
+Silahkan chat kami jika kamu memiliki pertanyaan seputar produk atau membutuhkan bantuan lainnya :)</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Flozindo Moringa Powder / Daun Kelor Bubuk Organik Superfood Alami Kaya Nutrisi</t>
+          <t>benih DAUN KELOR moringa oleivera unggul berkualitas siap tanam</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Rp17.093</t>
+          <t>Rp1.800</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Flozindo</t>
+          <t>Rp1.000</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Kab. Banyumas</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>1rb+ terjual</t>
+          <t>Amanjaya_Store</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/flozindo/flozindo-moringa-powder-daun-kelor-bubuk-organik-superfood-alami-kaya-nutrisi-slim-108gr-29f6a?extParam=ivf%3Dtrue%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
+          <t>Kab. Bandung</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Komposisi : Moringa Oleifera
-P-IRT No.2123304061431-25
-Tersedia kemasan 100 gr dan 500gr (Silahkan lihat di etalase)
-**Jika menginginkan untuk kemasan 1 kg silahkan request untuk 2 kemasan 500gr di jadikan 1 kg
-SPESIFIKASI :
-&gt; MURNI 100% DAUN KELOR HIJAU DIKERINGKAN
-&gt; Tanpa Campuran, Pengawet ataupun Pewarna
-&gt; Warna Hijau Segar Bright, krn diproses alami dan bukan daun Mati/Guguran Daun yg coklat tidak berkhasiat.
-&gt; Wangi Khas Moringa Segar, Wangi Moringa Sangat Tajam
-Khasiat dan Manfaat
-Serbuk Daun Kelorina merupakan suplemen alami, sumber antioksidan alami, asam amino essensial, multivitamin dan mineral, serta sumber asupan nutrisi tinggi alami lainnya bagi tubuh. Secara enpiris maupun hasil penelitian ilmiah, serbuk daun Kelor juga terbukti berhasil mengatasi malnutrisi (gizi buruk), berkhasiat obat untuk beragam penyakit degeneratif, digunakan sebagai anti kanker, anti tumor, anti diabetes, anti hipertensi, peluruh lemak jahat kolesterol, detoksifikasi, tonic penguat jantung, bahkan
-Penggunaan : sebagai campuran minuman (teh, kopi, jamu, juice, sirup, madu) dan makanan (aneka sayuran, nasi goreng, kue, agar-agar, puding, dll), serta bahan pengisi kapsul.
-Dosis : Dianjurkan untuk dikonsumsi 2-3 sendok teh per hari
-&gt; pagi 1 sendok teh malam 1 sendok teh9. Pewarna Makana
-Flozindo adalah produk alami untuk membantu memelihara kesehatan Anda. Terbuat dari bahan-bahan pilihan terbaik dari alam, Flozindo membantu menjaga keseimbangan tubuh, meningkatkan sistem kekebalan, dan memberikan energi ekstra untuk aktivitas harian Anda.
-Flozindo bukan hanya sekedar suplemen, tetapi juga teman terbaik Anda dalam perjalanan menuju hidup yang lebih sehat dan bahagia.
-Jangan tunggu lagi, mulailah perawatan alami Anda dengan kami
-Flozindo.id</t>
+          <t>250+ terjual</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>4.9</t>
+          <t>https://www.tokopedia.com/amanjayastore-2/benih-daun-kelor-moringa-oleivera-unggul-berkualitas-siap-tanam?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Benih Daun Kelor Moringa Oleifera kemasan repack plastik ziplock isi 10 Biji Benih bibit siap tanam. bisa juga digunakan untuk berbagai Produk olahan. Minyak biji kelor juga sangat bermanfaat bagi tubuh manusia untuk merawat kulit wajah,merawat kulit kepala,mengandung antioksidan tinggi,anti inflamasi,antibodi,mengandung protein tinggi Daun kelor merupakan salah satu jenis sayuran yang sekarang ini populer. Daun kelor asli Indonesia sudah terkenal manfaatnya sampai ke mancanegara. Banyak peneliti yang sudah menemukan manfaat daun kelor untuk kesehatan tubuh. Daun kelor sudah dianggap sebagai tanaman ajaib yang dapat digunakan sebagai obat herbal segala penyakit. Kandungan vitamin C daun kelor lebih banyak dari sayur maupun buah lainnya. Selain itu, kandungan vitamin A dan potasium dalam daun kelor sangat tinggi. Tidak heran jika daun kelor dianggap sebagai tanaman ajaib yang sangat bagus untuk tubuh. Manfaat Daun Kelor : Untuk Pengobatan Bagi Tubuh, Diabetes, Kanker Kandungan-kandungan dalam daun kelor ini membuat daun kelor mempunyai banyak sekali manfaat. Manfaat daun kelor bagi tubuh sangat banyak, mulai dari mengobati penyakit dalam sampai penyakit luar.</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
     </row>
@@ -4116,32 +4470,34 @@
           <t>Rp6.900</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C66" t="inlineStr"/>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr">
         <is>
           <t>Seduh Pertama</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>Kab. Bekasi</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>250+ terjual</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/tavishamahadana/10-tea-bag-moringa-tea-asi-booster-flower-tea-siap-seduh?extParam=ivf%3Dtrue%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/tavishamahadana/10-tea-bag-moringa-tea-asi-booster-flower-tea-siap-seduh?extParam=ivf%3Dtrue%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
         <is>
           <t>READY STOCK Flower tea yang dikemas dalam tea bag sehingga tinggal diseduh tanpa harus menggunakan saringan teh lagi. Berisi 10 flower tea yang dimasukan dalam kantong teh food grade dan dikemas menggunakan plastik ziplock sehingga sangat praktis dan aman. Praktis Harga paling best deal Cocok dijadikan gift souvenir Bisa untuk isian hampers custom (Tinggal tambahkan additional box) Selamat ngeteh cantik</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -4158,23 +4514,29 @@
           <t>Rp169.000</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>The Body Shop Indonesia</t>
-        </is>
-      </c>
+      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
+          <t>The Body Shop Indonesia</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Tangerang Selatan</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>3rb+ terjual</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/tbs-official/the-body-shop-new-moringa-body-mist-100ml?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/tbs-official/the-body-shop-new-moringa-body-mist-100ml?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>NEW PACKAGING &amp; IMPROVED FORMULA
 Pengharum tubuh dalam format body mist dengan aroma moringa yang lembut dan menyegarkan. Terbuat dari denatured alcohol dan 97% natural origin ingredients. Cocok untuk digunakan sehari-hari.
@@ -4193,7 +4555,7 @@
 Silahkan chat kami jika kamu memiliki pertanyaan seputar produk atau membutuhkan bantuan lainnya :)</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -4210,27 +4572,29 @@
           <t>Rp15.000</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
         <is>
           <t>Al-fazza Herbal</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>Kab. Magelang</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>1rb+ terjual</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/al-fazzaherbal/teh-celup-daun-kelor-moringa?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/al-fazzaherbal/teh-celup-daun-kelor-moringa?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>READY ,,LANGSUNG ORDER SAJABARANG SELALU BARU ,EXP LAMA
 DAUN KELOR / MORINGA
@@ -4256,7 +4620,7 @@
 #tehdaunkelor #moringgatea #tehherbal</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
@@ -4265,35 +4629,96 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>100gr Daun Kelor Bubuk / Ground Moringa / Rempah / JSR 100% PREMIUM</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Rp13.900</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Cap Sahabat</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Bandung</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>250+ terjual</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/capsahabat/100gr-daun-kelor-bubuk-ground-moringa-rempah-jsr-100-premium?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Deskripsi Produk :
+- Daun Kelor bubuk premium quality dan bersih tanpa campuran
+- Semua gambar dalam produk adalah real picture kami :)
+- Barang 100% premium quality, murni tanpa campuran dan melalui beberapa tahap pembersihan sebelum dimasukan kedalam plastik higienis
+- Cocok untuk bumbu dapur rumah tangga, restoran, kedai, bakery dan lainnya
+Berat :
+- 100gr/kemasan
+Deskripsi Kemasan :
+- Menggunakan hot sealant press pada ujung atas untuk menjaga kualitas dan higienitas produk
+- Menggunakan kemasan ZIPLOCK yang dapat dibuka dan ditutup kembali sesuai kebutuhan
+*Untuk menjaga kualitas produk, pastikan ziplock tertutup rapat dan simpan ditempat yang sejuk dan kering
+Pengiriman :
+- Untuk memastikan barang sampai dengan kondisi baik, setiap pengiriman kami tambahkan bubble wrap secara gratis :)
+- Untuk beberapa kasus pengiriman jauh atau rawan rusak dijalan, kami akan tempelkan stiker fragile pada paket
+Kami juga menyediakan berbagai macam rempah - rempah yang anda butuhkan, silahkan cek koleksi produk lainnya dari toko kami :)
+#daunkelororiginal #kayumanismurah #bumbudapur #bumbukering #bumbudapurmurah #bumbudapurlengkap #bumbudapurorganik #bumbudapuralami #bumbudapursehat #bumbudapurpraktis #daunkelorasli #daunkelormirqh #daunkelor #daunkelorpraktis</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
           <t>Moringa Kapsul Daun Kelor Naturama Premium Organik</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B70" t="inlineStr">
         <is>
           <t>Rp288.500</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
         <is>
           <t>Naturama Store</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>Jakarta Selatan</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>100+ terjual</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/naturama/moringa-kapsul-daun-kelor-naturama-premium-organik?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/naturama/moringa-kapsul-daun-kelor-naturama-premium-organik?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>Kapsul Moringa Oleifera 
 Isi 300 Kapsul @500mg
@@ -4314,135 +4739,153 @@
 #kapsuldaunkelor</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>4.9</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>pohon moringa</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Rp35.000.000</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>novel flora</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>Kab. Bogor</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/novelflora/pohon-moringa?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>100gr Daun Kelor Bubuk / Ground Moringa / Rempah / JSR 100% PREMIUM</t>
+          <t>pohon moringa</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Rp13.900</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Cap Sahabat</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>Bandung</t>
-        </is>
-      </c>
+          <t>Rp35.000.000</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>250+ terjual</t>
+          <t>novel flora</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/capsahabat/100gr-daun-kelor-bubuk-ground-moringa-rempah-jsr-100-premium?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Deskripsi Produk :
-- Daun Kelor bubuk premium quality dan bersih tanpa campuran
-- Semua gambar dalam produk adalah real picture kami :)
-- Barang 100% premium quality, murni tanpa campuran dan melalui beberapa tahap pembersihan sebelum dimasukan kedalam plastik higienis
-- Cocok untuk bumbu dapur rumah tangga, restoran, kedai, bakery dan lainnya
-Berat :
-- 100gr/kemasan
-Deskripsi Kemasan :
-- Menggunakan hot sealant press pada ujung atas untuk menjaga kualitas dan higienitas produk
-- Menggunakan kemasan ZIPLOCK yang dapat dibuka dan ditutup kembali sesuai kebutuhan
-*Untuk menjaga kualitas produk, pastikan ziplock tertutup rapat dan simpan ditempat yang sejuk dan kering
-Pengiriman :
-- Untuk memastikan barang sampai dengan kondisi baik, setiap pengiriman kami tambahkan bubble wrap secara gratis :)
-- Untuk beberapa kasus pengiriman jauh atau rawan rusak dijalan, kami akan tempelkan stiker fragile pada paket
-Kami juga menyediakan berbagai macam rempah - rempah yang anda butuhkan, silahkan cek koleksi produk lainnya dari toko kami :)
-#daunkelororiginal #kayumanismurah #bumbudapur #bumbukering #bumbudapurmurah #bumbudapurlengkap #bumbudapurorganik #bumbudapuralami #bumbudapursehat #bumbudapurpraktis #daunkelorasli #daunkelormirqh #daunkelor #daunkelorpraktis</t>
-        </is>
-      </c>
+          <t>Kab. Bogor</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>https://www.tokopedia.com/novelflora/pohon-moringa?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
+          <t>MORINGA TEA - TEH DAUN KELOR ISI 30 TEA BAG</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Rp21.000</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>elif Tea &amp; Tisane</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Kab. Cirebon</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2rb+ terjual</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/eliftea/moringa-tea-teh-daun-kelor-isi-30-tea-bag-pure-moringa?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Menjaga imunitas tubuh kini sangat penting saat kondisi ini.
+Beragam hal dilakukan untuk menajaga imunitas, salah satunya dengan mengonsumsi makanan bergizi. Daun kelor menjadi salah satu pilihan lantaran mengandung sejumlah vitamin dan antioksidan.
+"Tim peneliti Universitas Indonesia (UI) dan IPB menemukan kandidat antivirus dari bahan alam Indonesia. Golongan senyawa tersebut antara lain hesperidin, rhamnetin, kaempferol, kuersetin dan myricetin yang terk
+Salah satu produk alternatif pangan, banyak diminati dimancanegara ;)
+Produk ini dapat disimpan selama 24 bulan sejak tanggal pembuatan di dalam wadah tertutup pada suhu kamar dan kelembaban rendah. Produk dapat dipesan dengan skala industri atau untuk skala kecil seperti untuk penelitian.
+- Berbentuk teh celup (dengan teabag)
+- Dikonsumsi seperti teh pada umumnya, bisa ditambahkan madu agar lebih nikmat
+- Dapat dikonsumsi 3- x sehari, sesuai kebutuhan.
+Isi : 30 tea bag
+Berat Bersih : 30 x 2 gram
+(*)Aman untuk ibu ham dan menyusui
+Manfaat utama Teh Daun Kelor untuk meningkatkan imunitas.
+Manfaat lainnya :
+1. Menyehatkan kulit
+2. Mengatasi diabetes
+3. Menyehatkan mata
+4. Mencegah kanker
+5. Mengobati Rematik
+6. Mengatasi Cacingan
+7. Mengobati Alergi
+8. Mengobati Herpes, Kurap dan Luka bernanah
+9. Menghilangkan Flek wajah
+10. Penghancur batu ginjal
+Keunggulan :
+1. 100 % Organik
+2 Tanaman dibudidayakan intensif tanpa pupuk dan pestisida kimia
+3. Daun diproses secara higienis untuk mencegah kontaminasi bakteri
+4. Teh daun dikemas dengan rapi</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
           <t>Sample Pack HERBAL TISANE Series A - Moringa Lemon Orange Pandan tea</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B73" t="inlineStr">
         <is>
           <t>Rp1.950</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="C73" t="inlineStr"/>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
         <is>
           <t>Seduh Tea &amp; Tisane</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>Kab. Bekasi</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>1rb+ terjual</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/seduhtisane/sample-pack-herbal-tisane-series-a-moringa-lemon-orange-pandan-tea-coffee-cascara?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/seduhtisane/sample-pack-herbal-tisane-series-a-moringa-lemon-orange-pandan-tea-coffee-cascara?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>Sample Pack HERBAL TISANE
 SERI A
@@ -4469,44 +4912,46 @@
 PANDAN (3GR)</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+    <row r="74">
+      <c r="A74" t="inlineStr">
         <is>
           <t>Daun Kelor Bubuk Murni Moringa Powder Herbal Original Super Food</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B74" t="inlineStr">
         <is>
           <t>Rp8.900</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
         <is>
           <t>Batavia Herbal Shop</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>Jakarta Pusat</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>2rb+ terjual</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/bataviaherbalshop/daun-kelor-bubuk-murni-moringa-powder-herbal-original-super-food?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/bataviaherbalshop/daun-kelor-bubuk-murni-moringa-powder-herbal-original-super-food?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>Daun Kelor Bubuk/ Moringa Powder
 ✓ Produk Garansi Original Asli 100% Murni
@@ -4552,40 +4997,46 @@
 ∆ Perhatian untuk yang alergi terhadap kandungan produk ini</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+    <row r="75">
+      <c r="A75" t="inlineStr">
         <is>
           <t>Daun Kelor Kering / Dried Moringa Leaf / Teh Daun Kelor</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>Rp12.000</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C75" t="inlineStr"/>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
         <is>
           <t>Essenli Official Shop</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Semarang</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
         <is>
           <t>100+ terjual</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/essenliofficial/daun-kelor-kering-dried-moringa-leaf-teh-daun-kelor?extParam=cmp%3D1%26ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/essenliofficial/daun-kelor-kering-dried-moringa-leaf-teh-daun-kelor?extParam=cmp%3D1%26ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>Daun Kelor / Moringa Leaves
 Kemasan : 50gr
@@ -4595,221 +5046,46 @@
 Campurkan 1sdm Daun Kelor ke dalam 250ml air panas kemudian disaring,dapat dicampur dengan madu.</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Natur Shampoo Moringa &amp; Sweet Almond Oil</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Rp30.062</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Natur</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>Jakarta Timur</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>750+ terjual</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/backtonatur/natur-shampoo-moringa-sweet-almond-oil?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch%26whid%3D364279</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Dari hasil analisa kandungan nutrisi Moringa Oliefera ini memiliki manfaat sangat baik untuk perawatan rambut rusak seperti bercabang dan pecah-pecah.
-Ekstrak Moringa Oliefera dan Sweet Almond Oil yang terkandung dalam Natur shampoo mampu menutrisi dan memperbaiki struktur helaian rambut dan mengembalikannya kembali sehat alami.
-Fungsi :
-Menutrisi dan merawat rambut rusak.
-Aktif Ingredients :
-Ekstrak Moringa Oliefera &amp; Sweet Almond Oil
-Penggunaan :
-Digunakan sehari-hari.
-Ukuran :
-140 ml"</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>4.9</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MORINGA TEA - TEH DAUN KELOR ISI 30 TEA BAG</t>
+          <t>Moringa Oleifera - Ekstrak Daun Kelor 100 KAPSUL</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Rp21.000</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>elif Tea &amp; Tisane</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Kab. Cirebon</t>
-        </is>
-      </c>
+          <t>Rp80.000</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2rb+ terjual</t>
+          <t>D'herbalist</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/eliftea/moringa-tea-teh-daun-kelor-isi-30-tea-bag-pure-moringa?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
+          <t>Jakarta Selatan</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Menjaga imunitas tubuh kini sangat penting saat kondisi ini.
-Beragam hal dilakukan untuk menajaga imunitas, salah satunya dengan mengonsumsi makanan bergizi. Daun kelor menjadi salah satu pilihan lantaran mengandung sejumlah vitamin dan antioksidan.
-"Tim peneliti Universitas Indonesia (UI) dan IPB menemukan kandidat antivirus dari bahan alam Indonesia. Golongan senyawa tersebut antara lain hesperidin, rhamnetin, kaempferol, kuersetin dan myricetin yang terk
-Salah satu produk alternatif pangan, banyak diminati dimancanegara ;)
-Produk ini dapat disimpan selama 24 bulan sejak tanggal pembuatan di dalam wadah tertutup pada suhu kamar dan kelembaban rendah. Produk dapat dipesan dengan skala industri atau untuk skala kecil seperti untuk penelitian.
-- Berbentuk teh celup (dengan teabag)
-- Dikonsumsi seperti teh pada umumnya, bisa ditambahkan madu agar lebih nikmat
-- Dapat dikonsumsi 3- x sehari, sesuai kebutuhan.
-Isi : 30 tea bag
-Berat Bersih : 30 x 2 gram
-(*)Aman untuk ibu ham dan menyusui
-Manfaat utama Teh Daun Kelor untuk meningkatkan imunitas.
-Manfaat lainnya :
-1. Menyehatkan kulit
-2. Mengatasi diabetes
-3. Menyehatkan mata
-4. Mencegah kanker
-5. Mengobati Rematik
-6. Mengatasi Cacingan
-7. Mengobati Alergi
-8. Mengobati Herpes, Kurap dan Luka bernanah
-9. Menghilangkan Flek wajah
-10. Penghancur batu ginjal
-Keunggulan :
-1. 100 % Organik
-2 Tanaman dibudidayakan intensif tanpa pupuk dan pestisida kimia
-3. Daun diproses secara higienis untuk mencegah kontaminasi bakteri
-4. Teh daun dikemas dengan rapi</t>
+          <t>250+ terjual</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>4.9</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>JUAL DAUN KELOR KERING PREMIUM/TEH KELOR/MORINGA TEA 500 GRAM</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Rp33.500</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>ROSELLAKU</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>Surabaya</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>1rb+ terjual</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/jualtehrosella/jual-daun-kelor-kering-premium-teh-kelor-moringa-tea-500-gram?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>JUAL TEH DAUN KELOR PREMIUM 100% ORGANIC
-ADA HARGA ADA KUALITAS (PANEN 2025)
-Produk kami 100% Organic no peptisida
-WARNA DAUN HIJAU Yaa, Tidak Kekuningan ,Karena Produk dari tanah sendiri di seleksi
-Untuk kebutuhan produksi banyak bisa langsung Chat , untuk kesediaan barang 082380080064
-Manfaat Teh Daun Kelor / Manfaat Moringa Tea
-: - Mengobati Kanker- Karena ada kandungan Beta-Sitosterol -
-Memilik Antioksidan yang tinggi - mampu menakal Radikal Bekas dan contohnya seperti Virus yg umum skg
-- Gizi untuk Ibu Menyusui -karena kandungan galaktagog, yaitu zat alami untuk mendukung kelancaran laktasi.
--Menyehatkan Tulang
-- Sifat anti-inflamasi dari ekstrak kelor juga dapat membantu untuk mengobati kondisi seperti radang sendi dan juga dapat menyembuhkan tulang yang rusak.
-- Meningkatkan Libido
-- Hampir setiap orang pasti merasakan stres yang mungkin dapat membuat kemampuan seks Anda menurun. Kondisi ini dapat mengurangi kadar hormon, meningkatkan kortisol dan mengurangi dopamin yang menurunkan libido.
-- Mengobati Anemia dan Penyakit Sel Sabit
-- Mencegah Gangguan Ginjal . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . .
-#JUAL TEH DAUN KELOR MURAH SURABAYA ,BALI ,SUMATERA,KALIMANTAN BANDUNG,JAKARTA MALANG KEDIRI,SULAWESI ,LOMBOK INDONESIA,JOGJAKARTA,SEMARANG #JUAL DAUN KELOR MURAH SURABAYA ,BALI ,SUMATERA,KALIMANTAN BANDUNG,JAKARTA MALANG KEDIRI,SULAWESI ,LOMBOK INDONESIA,JOGJAKARTA,SEMARANG #JUAL TEH DAUN KELOR PREMIUM SURABAYA ,BALI ,SUMATERA,KALIMANTAN BANDUNG,JAKARTA MALANG KEDIRI,SULAWESI ,LOMBOK INDONESIA,JOGJAKARTA,SEMARANG #OLAHAN DAUN KELOR SUPPLIER TEH DAUN KELOR PREMIUM MURAH SURABAYA ,BALI ,SUMATERA,KALIMANTAN BANDUNG,JAKARTA MALANG KEDIRI,SULAWESI ,LOMBOK INDONESIA,JOGJAKARTA,SEMARANG SUPLIER TEH DAUN KELOR PREMIUM MURAH SURABAYA ,BALI ,SUMATERA,KALIMANTAN BANDUNG,JAKARTA MALANG KEDIRI,SULAWESI ,LOMBOK INDONESIA,JOGJAKARTA,SEMARANG Kelor Surabaya Kelor Jakarta Kelor Medan Kelor Malang Kelor Bandung Kelor Kalimant</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>4.9</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Moringa Oleifera - Ekstrak Daun Kelor 100 KAPSUL</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Rp80.000</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>D'herbalist</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Jakarta Selatan</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>250+ terjual</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/dherbalist/moringa-oleifera-ekstrak-daun-kelor-100-kapsul-botol-100-kaps-5035b?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
+          <t>https://www.tokopedia.com/dherbalist/moringa-oleifera-ekstrak-daun-kelor-100-kapsul-botol-100-kaps-5035b?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>Nama Produk : Dherbalist Moringa Oleifera
 Izin. : P-IRT 21031740215551-29
@@ -4851,44 +5127,107 @@
 - Mencegah Infeksi Bakteri, Virus dan Jamur</t>
         </is>
       </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Natur Shampoo Moringa &amp; Sweet Almond Oil</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Rp43.000</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Rp30.062</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Natur</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Jakarta Timur</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>750+ terjual</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/backtonatur/natur-shampoo-moringa-sweet-almond-oil?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch%26whid%3D364279</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Dari hasil analisa kandungan nutrisi Moringa Oliefera ini memiliki manfaat sangat baik untuk perawatan rambut rusak seperti bercabang dan pecah-pecah.
+Ekstrak Moringa Oliefera dan Sweet Almond Oil yang terkandung dalam Natur shampoo mampu menutrisi dan memperbaiki struktur helaian rambut dan mengembalikannya kembali sehat alami.
+Fungsi :
+Menutrisi dan merawat rambut rusak.
+Aktif Ingredients :
+Ekstrak Moringa Oliefera &amp; Sweet Almond Oil
+Penggunaan :
+Digunakan sehari-hari.
+Ukuran :
+140 ml"</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>KAPSUL DAUN KELOR ORGANIK, MORINGA LEAF ORGANIC CAPSULE (LAB COA 2021)</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Rp60.000</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>MORINGA LIVING OFFICIAL STORE</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Jakarta Barat</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>250+ terjual</t>
+        </is>
+      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>4.9</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>KAPSUL DAUN KELOR ORGANIK, MORINGA LEAF ORGANIC CAPSULE (LAB COA 2021)</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Rp60.000</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>MORINGA LIVING OFFICIAL STORE</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>Jakarta Barat</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>250+ terjual</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/moringaliving/kapsul-daun-kelor-organik-moringa-leaf-organic-capsule-lab-coa-2021-60kapsul?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
+          <t>https://www.tokopedia.com/moringaliving/kapsul-daun-kelor-organik-moringa-leaf-organic-capsule-lab-coa-2021-60kapsul?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>Obat Herbal Daun Kelor Kapsul Original 100% Murni Alami Mengontrol Kadar Gula Darah Kolestrol Kanker Pure Organic.
 Kenapa Harus Berbelanja di Toko Morifa?
@@ -4912,44 +5251,54 @@
 Jangan Lupa Bintang 5</t>
         </is>
       </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Daun Kelor Dari Bumi 400 gram - Produk Moringa Original DARI BUMI</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Rp89.000</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Rp46.500</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>48%</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Kurma Alif Bandung</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Bandung</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>100+ terjual</t>
+        </is>
+      </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Daun Kelor Dari Bumi 400 gram - Produk Moringa Original DARI BUMI</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Rp46.500</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Kurma Alif Bandung</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>Bandung</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>100+ terjual</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/kurmaalifbandung/daun-kelor-dari-bumi-400-gram-produk-moringa-original-dari-bumi?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
+          <t>https://www.tokopedia.com/kurmaalifbandung/daun-kelor-dari-bumi-400-gram-produk-moringa-original-dari-bumi?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>Assalamu'alaikum Wr. Wb
 Daun Kelor Dari Bumi 400 + 50 gram - Produk Moringa Original DARI BUMI
@@ -4964,7 +5313,66 @@
 Wassalamu'alaikum Wr. Wb</t>
         </is>
       </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>JUAL DAUN KELOR KERING PREMIUM/TEH KELOR/MORINGA TEA 500 GRAM</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Rp33.500</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>ROSELLAKU</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Surabaya</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>1rb+ terjual</t>
+        </is>
+      </c>
       <c r="H80" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/jualtehrosella/jual-daun-kelor-kering-premium-teh-kelor-moringa-tea-500-gram?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>JUAL TEH DAUN KELOR PREMIUM 100% ORGANIC
+ADA HARGA ADA KUALITAS (PANEN 2025)
+Produk kami 100% Organic no peptisida
+WARNA DAUN HIJAU Yaa, Tidak Kekuningan ,Karena Produk dari tanah sendiri di seleksi
+Untuk kebutuhan produksi banyak bisa langsung Chat , untuk kesediaan barang 082380080064
+Manfaat Teh Daun Kelor / Manfaat Moringa Tea
+: - Mengobati Kanker- Karena ada kandungan Beta-Sitosterol -
+Memilik Antioksidan yang tinggi - mampu menakal Radikal Bekas dan contohnya seperti Virus yg umum skg
+- Gizi untuk Ibu Menyusui -karena kandungan galaktagog, yaitu zat alami untuk mendukung kelancaran laktasi.
+-Menyehatkan Tulang
+- Sifat anti-inflamasi dari ekstrak kelor juga dapat membantu untuk mengobati kondisi seperti radang sendi dan juga dapat menyembuhkan tulang yang rusak.
+- Meningkatkan Libido
+- Hampir setiap orang pasti merasakan stres yang mungkin dapat membuat kemampuan seks Anda menurun. Kondisi ini dapat mengurangi kadar hormon, meningkatkan kortisol dan mengurangi dopamin yang menurunkan libido.
+- Mengobati Anemia dan Penyakit Sel Sabit
+- Mencegah Gangguan Ginjal . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . . .
+#JUAL TEH DAUN KELOR MURAH SURABAYA ,BALI ,SUMATERA,KALIMANTAN BANDUNG,JAKARTA MALANG KEDIRI,SULAWESI ,LOMBOK INDONESIA,JOGJAKARTA,SEMARANG #JUAL DAUN KELOR MURAH SURABAYA ,BALI ,SUMATERA,KALIMANTAN BANDUNG,JAKARTA MALANG KEDIRI,SULAWESI ,LOMBOK INDONESIA,JOGJAKARTA,SEMARANG #JUAL TEH DAUN KELOR PREMIUM SURABAYA ,BALI ,SUMATERA,KALIMANTAN BANDUNG,JAKARTA MALANG KEDIRI,SULAWESI ,LOMBOK INDONESIA,JOGJAKARTA,SEMARANG #OLAHAN DAUN KELOR SUPPLIER TEH DAUN KELOR PREMIUM MURAH SURABAYA ,BALI ,SUMATERA,KALIMANTAN BANDUNG,JAKARTA MALANG KEDIRI,SULAWESI ,LOMBOK INDONESIA,JOGJAKARTA,SEMARANG SUPLIER TEH DAUN KELOR PREMIUM MURAH SURABAYA ,BALI ,SUMATERA,KALIMANTAN BANDUNG,JAKARTA MALANG KEDIRI,SULAWESI ,LOMBOK INDONESIA,JOGJAKARTA,SEMARANG Kelor Surabaya Kelor Jakarta Kelor Medan Kelor Malang Kelor Bandung Kelor Kalimant</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
@@ -4978,35 +5386,45 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
+          <t>Rp106.900</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
           <t>Rp101.555</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
         <is>
           <t>The House Of Organix</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>Jakarta Utara</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>100+ terjual</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/houseoforganix/herbilogy-moringa-extract-powder-100-gr?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310060724BB097414E6751F39AQQF%26src%3Dsearch</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/houseoforganix/herbilogy-moringa-extract-powder-100-gr?extParam=ivf%3Dfalse%26keyword%3Dmoringa%26search_id%3D20250310122032439AD2F37D0CC01C6WE3%26src%3Dsearch</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>Tanaman ini dikenal ajaib dan memiliki multi fungsi kesehatan. Moringa atau daun Kelor dipercaya dapat menstabilkan tekanan darah, gula darah, sebagai aphrodisiac, mengatasi anemia, dan digunakan untuk mengatasi masalah malnutrisi pada anak-anak hingga orang lanjut usia karena kandungan nutrisinya, serta masih banyak lagi manfaat kesehatannya. Daun kelor juga dikenal dapat melancarkan ASI dan dapat dikonsumsi sebagai alternatif pemberian daun katuk. Ingredients: 100g pack contains 100% Super Fine Premium Moringa Oleifera (herba) extract powder Origin: Indonesia Taste: Moringa natural taste Rekomendasi penggunaan: Bagaimana cara menggunakan? Campurkan 1 sendok teh (3 gram) dengan segelas susu hangat atau dicampur dengan jus, smoothies. Anjuran pemakaian: satu hingga tiga kali sehari disertai dengan minum air putih yang cukup. Follow our simple recipes here or create your own and get the natural goodness everyday. Our Ingredients are 100% natural, made purely from real fresh plants We ensure you get all the goodness from the fresh plants with assured quality. No sugar, No MSG, No artificial flavors or colors, No preservatives, No chemicals (bahan kimia obat) added. Our powders taste as good as the real plants. Gluten Free, No Dairy, no Wheat, No Soy, non-GMO Organic Raw Ingredients Have longer shelf life with minimum change of taste and smell if stored correctly*. Are practical. Easy to use. Easy to store. One teaspoon of powder replaces 3 or more hours of processing (buying plants or herbal produce from the market, cleaning it, boiling it, and reducing it to its concentrate)</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
+      <c r="J81" t="inlineStr">
         <is>
           <t>4.8</t>
         </is>
@@ -5023,27 +5441,29 @@
           <t>Rp225.000</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C82" t="inlineStr"/>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
         <is>
           <t>Agen Mosehat</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>Jakarta Timur</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>3rb+ terjual</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/agen-mosehat/mosehat-obat-herbal-moringa-daun-kelor-habbatussauda-propolis-original?extParam=ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>MOSEHAT Obat Tetes Herbal Moringa Daun Kelor Atasi Berbagai Penyakit
 Mosehat adalah jamu tetes ekstrak daun kelor yang diformulasikan oleh LAB berpengalaman puluhan tahun, diolah secara higienis dan Modern.
@@ -5086,7 +5506,7 @@
 Semoga Bermanfaat!!</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="J82" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
@@ -5095,35 +5515,105 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
+          <t>Moringa Kapsul Daun Kelor Naturama Premium Organik</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Rp288.500</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Naturama Store</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Jakarta Selatan</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>100+ terjual</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/naturama/moringa-kapsul-daun-kelor-naturama-premium-organik?extParam=ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Kapsul Moringa Oleifera 
+Isi 300 Kapsul @500mg
+Kemasan Botol Hdpe Foodgrade
+Premium Quality menggunakan kapsul halal MUI
+Tidak mengandung pewarna atau pengawet.
+Ingredients: 100% Bubuk Moringa Oleifera
+Exp date : 2025
+Moringa merupakan tanaman yang berasal dari daerah India, Pakistan, Bangladesh, dan Afganistan. Itu juga tumbuh di daerah tropis. Daun, kulit kayu, bunga, buah, biji, dan akar digunakan untuk membuat obat.
+Manfaat Moringa:
+Radang sendi dan nyeri sendi lainnya (rematik), asma, kanker, sembelit, diabetes, diare, kejang, sakit perut, tukak lambung dan usus, kejang usus, sakit kepala, masalah jantung , tekanan darah tinggi, batu ginjal, gejala menopause, gangguan tiroid, dan infeksi.
+Moringa juga diminum untuk mengurangi pembengkakan, sebagai antioksidan, mencegah kejang, meningkatkan gairah seks (sebagai afrodisiak), meningkatkan sistem kekebalan tubuh, dan meningkatkan produksi ASI. Beberapa orang menggunakannya sebagai suplemen gizi atau tonik. Ini juga digunakan sebagai "pil air" (diuretik).
+Saran penggunaan:
+1 Kapsul, di minum 3 kali sehari setelah makan.
+Ready Stok
+Silahkan di order.
+#moringacapsules
+#kapsuldaunkelor</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>4.9</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
           <t>Elora Beau Moringa Infused Skincare Intense Brightening</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Rp292.000</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
         <is>
           <t>Rp125.000</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>57%</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
         <is>
           <t>Elora Beauty Store</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>Jakarta Barat</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>100+ terjual</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/elorabeauty/elora-beau-moringa-infused-skincare-intense-brightening?extParam=ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>Elora Beau Moringa Infused Skincare Intense Brightening
 ELORA BRIGHTENING SERUM
@@ -5170,44 +5660,54 @@
 3. Gunakan setelah mencuci muka dengan bersih dan penggunaan serum</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>4.9</t>
         </is>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+    <row r="85">
+      <c r="A85" t="inlineStr">
         <is>
           <t>Herbal Essences Sampo + Kondisioner Repair Moringa Oil 400ml</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Rp218.000</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
         <is>
           <t>Rp195.300</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>10%</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
         <is>
           <t>P&amp;G Official Store</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>Jakarta Timur</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>1rb+ terjual</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>https://www.tokopedia.com/pgofficialstore/herbal-essences-sampo-kondisioner-repair-moringa-oil-400ml?extParam=ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>Herbal Essences Golden Moringa - Shampoo + Conditioner 400 ml
 Note:
@@ -5220,49 +5720,7 @@
 Basahkan rambut, tuangkan shampo lalu gosok rambut dan kulit kepala. Diamkan sampo 2-3 menit agar zat aktif bekerja maksimal, dan bilas hingga bersih dengan air hangat/dingin.</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Daun Kelor Kapsul Reg BPOM.TR Ekstrak Murni / Moringa Oleifera Kapsul</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Rp95.000</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>INDO PROSMART</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>Kab. Bandung</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>100+ terjual</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>https://www.tokopedia.com/indoprosmart/daun-kelor-kapsul-reg-bpom-tr-ekstrak-murni-moringa-oleifera-kapsul-1-botol?extParam=ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>PROMO BELI 2 GRATIS 1 *) Promo terbatas dan dapat berakhir kapan saja. ==================== Daun kelor memiliki julukan SUPERFOOD. Sebagai sumber nutrisi yang mengandung Protein, Vitamin B1 (tiamin), Vitamin B2 (Riboflavin), Vitamin B3 (Niacin), Vitamin B6, Vitamin C, Vitamin A, Zat besi dan magnesium. Selain itu Daun Kelor juga mengandung senyawa aktif lainnya seperti Flavonoid, Quercetin dan Polifenol yang memiliki sifat Anti Kanker dan dapat mengurangi resiko penyakit jantung dan diabetes. MANFAAT DAUN KELOR : Membantu mengobati Diabetes. Menurunkan kadar gula darah (Antidiabetik). Membantu menurunkan kadar Kolesterol Jahat (LDL). Menjaga kesehatan jantung. Menurunkan tekanan darah tinggi (Hipertensi). Mengatasi Radang Nyeri Sendi (Anti peradangan). Membantu mengatasi asam urat dan rematik. Membantu menurunkan demam. Meningkatkan kekebalan tubuh. Tidak di anjurkan bagi penderita penyakit ginjal. TENTANG PRODUK Nama Produk : DAUN KELOR Komposisi : Tiap kapsul mengandung Ekstrak yang setara dengan 2.8 gr Daun Kelor (Moringa Oleifera Folium). Isi : 60 Kapsul perbotol x 500 mg perkapsul. Legalitas BPOM : TR163395301 Legalitas Halal MUI : 12130002590521 KENAPA HARUS DAUN KELOR DARI KAMI? 100% ekstrak daun kelor (moringa olifiera ekstract), lebih cepat diserap tubuh. Bahan 100% alami, tanpa pengawet, tanpa pewarna. Tidak menyebabkan ketergantungan. Legalitas Jelas BPOM dan Halal MUI. Kemasan aman, menggunakan botol berstandar food grade. Halal, cangkang kapsul menggunakan bahan dari rumput laut. Berbentuk kapsul, konsumsi lebih praktis dan tepat takaran. ATURAN KONSUMSI : 3 x 2 kapsul sehari *) Untuk hasil optimal, konsumsi secara rutin minimal 30 hari. *) Untuk hasil bisa jadi berbeda-beda, karena kondisi tubuh setiap orang juga berbeda. Niatkan ikhtiar, untuk hasil serahkan kepada Allah SWT. SILAKAN DI OREDR! Kami Do #39;akan semoga cocok dan bermanfaat.</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
+      <c r="J85" t="inlineStr">
         <is>
           <t>5</t>
         </is>
@@ -5271,40 +5729,50 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Bubuk Daun Kelor Organik / Organic Moringa Powder - 250g</t>
+          <t>Daun Kelor Kapsul Reg BPOM.TR Ekstrak Murni / Moringa Oleifera Kapsul</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Rp49.000</t>
+          <t>Rp100.000</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Nilaya Official Store</t>
+          <t>Rp95.000</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Denpasar</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>1rb+ terjual</t>
+          <t>INDO PROSMART</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>https://www.tokopedia.com/nilaya-co/bubuk-daun-kelor-organik-organic-moringa-powder-250g?extParam=ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
+          <t>Kab. Bandung</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>READY STOCK di Jakarta, Bandung, Surabaya dan Bali, supaya terdekat anda! - Pengiriman Same-Day bisa! Pengiriman seluruh Indonesia bisa! Produksi pada saat order. Kemasan TIDAK Transparan sehingga bubuknya tetap segar, warnanya hijau terang dan manfaatnya tinggi ! 10 vitamin, 8 asam amino esensial, dan mineral dalam satu superfood? Kok bisa?! Moringa (Daun Kelor) adalah SUPERFOOD yang mengandung: Vitamin (B1, B2, B3, B5, B6, B8, B9, A, C, E) Mineral (kalium, kalsium, magnesium, besi, mangan, selenium) Asam amino esensial (isoleusin, leusin, lisin, metionin, fenilalanin, treonin, triptofan, valin). Mengandung lebih banyak protein daripada sebagian besar sayuran, dan 2 kali lebih banyak protein dan kalsium daripada susu! Kandungan potasiumnya 2 kali lebih penting daripada pisang! Betul ! Jika kita hanya bisa memilih satu superfood, lebih baik memilih Moringa untuk beragam manfaatnya! Cara konsumsi : Minum 1-2 sendok teh dengan yogurt, smoothie atau jus buah. Juga bisa menambahkan moringa ke persiapan kuliner seperti kue, pancake, makanan penutup agar menjadi warna hijau ! Yuk Beli moringa organik dari The Little Herbalist sekarang! BPOM P-IRT 5105103040079-27 TANGGAL KADALUARSA (Expiration Date) : +2 tahun dari tanggal pembelian</t>
+          <t>100+ terjual</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
+        <is>
+          <t>https://www.tokopedia.com/indoprosmart/daun-kelor-kapsul-reg-bpom-tr-ekstrak-murni-moringa-oleifera-kapsul-1-botol?extParam=ivf%3Dfalse%26keyword%3Dmoringa&amp;src=topads</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>PROMO BELI 2 GRATIS 1 *) Promo terbatas dan dapat berakhir kapan saja. ==================== Daun kelor memiliki julukan SUPERFOOD. Sebagai sumber nutrisi yang mengandung Protein, Vitamin B1 (tiamin), Vitamin B2 (Riboflavin), Vitamin B3 (Niacin), Vitamin B6, Vitamin C, Vitamin A, Zat besi dan magnesium. Selain itu Daun Kelor juga mengandung senyawa aktif lainnya seperti Flavonoid, Quercetin dan Polifenol yang memiliki sifat Anti Kanker dan dapat mengurangi resiko penyakit jantung dan diabetes. MANFAAT DAUN KELOR : Membantu mengobati Diabetes. Menurunkan kadar gula darah (Antidiabetik). Membantu menurunkan kadar Kolesterol Jahat (LDL). Menjaga kesehatan jantung. Menurunkan tekanan darah tinggi (Hipertensi). Mengatasi Radang Nyeri Sendi (Anti peradangan). Membantu mengatasi asam urat dan rematik. Membantu menurunkan demam. Meningkatkan kekebalan tubuh. Tidak di anjurkan bagi penderita penyakit ginjal. TENTANG PRODUK Nama Produk : DAUN KELOR Komposisi : Tiap kapsul mengandung Ekstrak yang setara dengan 2.8 gr Daun Kelor (Moringa Oleifera Folium). Isi : 60 Kapsul perbotol x 500 mg perkapsul. Legalitas BPOM : TR163395301 Legalitas Halal MUI : 12130002590521 KENAPA HARUS DAUN KELOR DARI KAMI? 100% ekstrak daun kelor (moringa olifiera ekstract), lebih cepat diserap tubuh. Bahan 100% alami, tanpa pengawet, tanpa pewarna. Tidak menyebabkan ketergantungan. Legalitas Jelas BPOM dan Halal MUI. Kemasan aman, menggunakan botol berstandar food grade. Halal, cangkang kapsul menggunakan bahan dari rumput laut. Berbentuk kapsul, konsumsi lebih praktis dan tepat takaran. ATURAN KONSUMSI : 3 x 2 kapsul sehari *) Untuk hasil optimal, konsumsi secara rutin minimal 30 hari. *) Untuk hasil bisa jadi berbeda-beda, karena kondisi tubuh setiap orang juga berbeda. Niatkan ikhtiar, untuk hasil serahkan kepada Allah SWT. SILAKAN DI OREDR! Kami Do #39;akan semoga cocok dan bermanfaat.</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
         <is>
           <t>5</t>
         </is>
